--- a/S7G2_Titan/2023_Sep_25_MD_Controller_IO_Map_32_bit_S7G2_Titan_6L.xlsx
+++ b/S7G2_Titan/2023_Sep_25_MD_Controller_IO_Map_32_bit_S7G2_Titan_6L.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\32-bit-controller\S7G2_Titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16B3397-9496-4A76-AE32-B7ED854F42DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCA63BB-5047-4414-9EE6-24EF141CB22D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="1103" windowWidth="28995" windowHeight="15795" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="1703" windowWidth="28995" windowHeight="15795" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S7G2_6L_IO" sheetId="16" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7518" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7529" uniqueCount="1038">
   <si>
     <t>A</t>
   </si>
@@ -3122,6 +3122,36 @@
   </si>
   <si>
     <t>J19</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>IRQ00</t>
+  </si>
+  <si>
+    <t>IRQ01</t>
+  </si>
+  <si>
+    <t>IRQ03</t>
+  </si>
+  <si>
+    <t>IRQ04</t>
+  </si>
+  <si>
+    <t>IRQ02</t>
+  </si>
+  <si>
+    <t>IRQ06</t>
+  </si>
+  <si>
+    <t>IRQ09</t>
+  </si>
+  <si>
+    <t>IRQ08</t>
+  </si>
+  <si>
+    <t>IRQ05</t>
   </si>
 </sst>
 </file>
@@ -3228,7 +3258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -3313,10 +3343,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3327,7 +3361,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3789,7 +3822,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3862,19 +3895,19 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B9" s="36"/>
-      <c r="C9" s="32" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="33" t="s">
         <v>942</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32" t="s">
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33" t="s">
         <v>941</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
       <c r="K9" t="s">
         <v>943</v>
       </c>
@@ -4269,11 +4302,11 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B29" s="30"/>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="33" t="s">
         <v>994</v>
       </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="30" t="s">
+      <c r="D29" s="33"/>
+      <c r="F29" s="30" t="s">
         <v>943</v>
       </c>
     </row>
@@ -4290,7 +4323,10 @@
       <c r="D30" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="31" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F30" s="30" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4307,7 +4343,10 @@
       <c r="D31" s="30" t="s">
         <v>998</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F31" s="30" t="s">
         <v>1010</v>
       </c>
     </row>
@@ -4324,11 +4363,14 @@
       <c r="D32" s="30" t="s">
         <v>999</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E32" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F32" s="30" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="30">
         <v>3</v>
       </c>
@@ -4341,11 +4383,14 @@
       <c r="D33" s="30" t="s">
         <v>1001</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F33" s="30" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="30">
         <v>4</v>
       </c>
@@ -4358,11 +4403,14 @@
       <c r="D34" s="30" t="s">
         <v>1002</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F34" s="30" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="30">
         <v>5</v>
       </c>
@@ -4375,11 +4423,14 @@
       <c r="D35" s="30" t="s">
         <v>1000</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F35" s="30" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="30">
         <v>6</v>
       </c>
@@ -4392,11 +4443,14 @@
       <c r="D36" s="30" t="s">
         <v>1008</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F36" s="30" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="30">
         <v>7</v>
       </c>
@@ -4407,11 +4461,14 @@
       <c r="D37" s="30" t="s">
         <v>1007</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E37" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F37" s="30" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="30">
         <v>8</v>
       </c>
@@ -4422,11 +4479,14 @@
       <c r="D38" s="30" t="s">
         <v>1006</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F38" s="30" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="30">
         <v>9</v>
       </c>
@@ -4437,11 +4497,14 @@
       <c r="D39" s="30" t="s">
         <v>1009</v>
       </c>
-      <c r="E39" s="30" t="s">
+      <c r="E39" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F39" s="30" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="30">
         <v>10</v>
       </c>
@@ -4454,7 +4517,10 @@
       <c r="D40" s="30" t="s">
         <v>1005</v>
       </c>
-      <c r="E40" s="30" t="s">
+      <c r="E40" t="s">
+        <v>415</v>
+      </c>
+      <c r="F40" s="30" t="s">
         <v>851</v>
       </c>
     </row>
@@ -17876,11 +17942,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
       <c r="E3" t="s">
         <v>115</v>
       </c>
@@ -17890,28 +17956,28 @@
       <c r="G3" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32" t="s">
+      <c r="I3" s="33"/>
+      <c r="J3" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32" t="s">
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
       <c r="X3" t="s">
         <v>121</v>
       </c>
@@ -18000,7 +18066,7 @@
       <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="33" t="s">
         <v>107</v>
       </c>
     </row>
@@ -18008,13 +18074,13 @@
       <c r="C6" s="9">
         <v>2</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="33"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C7" s="9">
         <v>3</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="33" t="s">
         <v>794</v>
       </c>
     </row>
@@ -18022,13 +18088,13 @@
       <c r="C8" s="9">
         <v>4</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="33"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C9" s="9">
         <v>5</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="33" t="s">
         <v>795</v>
       </c>
     </row>
@@ -18036,13 +18102,13 @@
       <c r="C10" s="9">
         <v>6</v>
       </c>
-      <c r="D10" s="32"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C11" s="9">
         <v>7</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="33" t="s">
         <v>796</v>
       </c>
     </row>
@@ -18050,13 +18116,13 @@
       <c r="C12" s="9">
         <v>8</v>
       </c>
-      <c r="D12" s="32"/>
+      <c r="D12" s="33"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C13" s="9">
         <v>9</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="35" t="s">
         <v>797</v>
       </c>
     </row>
@@ -18064,7 +18130,7 @@
       <c r="C14" s="9">
         <v>10</v>
       </c>
-      <c r="D14" s="32"/>
+      <c r="D14" s="33"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="N15" t="s">
@@ -18330,7 +18396,7 @@
       <c r="A19" s="9">
         <v>4</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="34" t="s">
         <v>768</v>
       </c>
       <c r="E19" t="s">
@@ -18407,7 +18473,7 @@
       <c r="A20" s="9">
         <v>5</v>
       </c>
-      <c r="D20" s="31"/>
+      <c r="D20" s="34"/>
       <c r="E20" t="s">
         <v>149</v>
       </c>
@@ -18482,7 +18548,7 @@
       <c r="A21" s="9">
         <v>6</v>
       </c>
-      <c r="D21" s="31"/>
+      <c r="D21" s="34"/>
       <c r="E21" t="s">
         <v>149</v>
       </c>
@@ -18557,7 +18623,7 @@
       <c r="A22" s="9">
         <v>7</v>
       </c>
-      <c r="D22" s="31"/>
+      <c r="D22" s="34"/>
       <c r="E22" t="s">
         <v>149</v>
       </c>
@@ -18632,7 +18698,7 @@
       <c r="A23" s="9">
         <v>8</v>
       </c>
-      <c r="D23" s="31"/>
+      <c r="D23" s="34"/>
       <c r="E23" t="s">
         <v>149</v>
       </c>
@@ -18707,7 +18773,7 @@
       <c r="A24" s="9">
         <v>9</v>
       </c>
-      <c r="D24" s="31"/>
+      <c r="D24" s="34"/>
       <c r="E24" t="s">
         <v>149</v>
       </c>
@@ -18782,7 +18848,7 @@
       <c r="A25" s="9">
         <v>10</v>
       </c>
-      <c r="D25" s="31"/>
+      <c r="D25" s="34"/>
       <c r="E25" t="s">
         <v>149</v>
       </c>
@@ -18857,7 +18923,7 @@
       <c r="A26" s="9">
         <v>11</v>
       </c>
-      <c r="D26" s="31"/>
+      <c r="D26" s="34"/>
       <c r="E26" t="s">
         <v>149</v>
       </c>
@@ -18932,7 +18998,7 @@
       <c r="A27" s="9">
         <v>12</v>
       </c>
-      <c r="D27" s="31"/>
+      <c r="D27" s="34"/>
       <c r="E27" t="s">
         <v>149</v>
       </c>
@@ -19007,7 +19073,7 @@
       <c r="A28" s="9">
         <v>13</v>
       </c>
-      <c r="D28" s="31"/>
+      <c r="D28" s="34"/>
       <c r="E28" t="s">
         <v>149</v>
       </c>
@@ -19464,7 +19530,7 @@
       <c r="A34" s="9">
         <v>19</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="34" t="s">
         <v>770</v>
       </c>
       <c r="E34" t="s">
@@ -19541,7 +19607,7 @@
       <c r="A35" s="9">
         <v>20</v>
       </c>
-      <c r="D35" s="31"/>
+      <c r="D35" s="34"/>
       <c r="E35" t="s">
         <v>230</v>
       </c>
@@ -19616,7 +19682,7 @@
       <c r="A36" s="9">
         <v>21</v>
       </c>
-      <c r="D36" s="31"/>
+      <c r="D36" s="34"/>
       <c r="E36" t="s">
         <v>231</v>
       </c>
@@ -19691,7 +19757,7 @@
       <c r="A37" s="9">
         <v>22</v>
       </c>
-      <c r="D37" s="31"/>
+      <c r="D37" s="34"/>
       <c r="E37" t="s">
         <v>232</v>
       </c>
@@ -19766,7 +19832,7 @@
       <c r="A38" s="9">
         <v>23</v>
       </c>
-      <c r="D38" s="31"/>
+      <c r="D38" s="34"/>
       <c r="E38" t="s">
         <v>233</v>
       </c>
@@ -19841,7 +19907,7 @@
       <c r="A39" s="9">
         <v>24</v>
       </c>
-      <c r="D39" s="31"/>
+      <c r="D39" s="34"/>
       <c r="E39" t="s">
         <v>238</v>
       </c>
@@ -19916,7 +19982,7 @@
       <c r="A40" s="9">
         <v>25</v>
       </c>
-      <c r="D40" s="31"/>
+      <c r="D40" s="34"/>
       <c r="E40" t="s">
         <v>244</v>
       </c>
@@ -19991,7 +20057,7 @@
       <c r="A41" s="9">
         <v>26</v>
       </c>
-      <c r="D41" s="31"/>
+      <c r="D41" s="34"/>
       <c r="E41" t="s">
         <v>245</v>
       </c>
@@ -20066,7 +20132,7 @@
       <c r="A42" s="9">
         <v>27</v>
       </c>
-      <c r="D42" s="31"/>
+      <c r="D42" s="34"/>
       <c r="E42" t="s">
         <v>246</v>
       </c>
@@ -20141,7 +20207,7 @@
       <c r="A43" s="9">
         <v>28</v>
       </c>
-      <c r="D43" s="31"/>
+      <c r="D43" s="34"/>
       <c r="E43" t="s">
         <v>247</v>
       </c>
@@ -20216,7 +20282,7 @@
       <c r="A44" s="9">
         <v>29</v>
       </c>
-      <c r="D44" s="31"/>
+      <c r="D44" s="34"/>
       <c r="E44" t="s">
         <v>248</v>
       </c>
@@ -20291,7 +20357,7 @@
       <c r="A45" s="9">
         <v>30</v>
       </c>
-      <c r="D45" s="31"/>
+      <c r="D45" s="34"/>
       <c r="E45" t="s">
         <v>249</v>
       </c>
@@ -20366,7 +20432,7 @@
       <c r="A46" s="9">
         <v>31</v>
       </c>
-      <c r="D46" s="31" t="s">
+      <c r="D46" s="34" t="s">
         <v>771</v>
       </c>
       <c r="E46" t="s">
@@ -20443,7 +20509,7 @@
       <c r="A47" s="9">
         <v>32</v>
       </c>
-      <c r="D47" s="31"/>
+      <c r="D47" s="34"/>
       <c r="E47" t="s">
         <v>149</v>
       </c>
@@ -20518,7 +20584,7 @@
       <c r="A48" s="9">
         <v>33</v>
       </c>
-      <c r="D48" s="31" t="s">
+      <c r="D48" s="34" t="s">
         <v>774</v>
       </c>
       <c r="E48" t="s">
@@ -20595,7 +20661,7 @@
       <c r="A49" s="9">
         <v>34</v>
       </c>
-      <c r="D49" s="31"/>
+      <c r="D49" s="34"/>
       <c r="E49" t="s">
         <v>251</v>
       </c>
@@ -20670,7 +20736,7 @@
       <c r="A50" s="9">
         <v>35</v>
       </c>
-      <c r="D50" s="31"/>
+      <c r="D50" s="34"/>
       <c r="E50" t="s">
         <v>232</v>
       </c>
@@ -21542,7 +21608,7 @@
       <c r="C61" s="9">
         <v>2</v>
       </c>
-      <c r="D61" s="31" t="s">
+      <c r="D61" s="34" t="s">
         <v>783</v>
       </c>
       <c r="F61" t="s">
@@ -21619,7 +21685,7 @@
       <c r="C62" s="9">
         <v>3</v>
       </c>
-      <c r="D62" s="31"/>
+      <c r="D62" s="34"/>
       <c r="F62" t="s">
         <v>149</v>
       </c>
@@ -22642,7 +22708,7 @@
       <c r="A75" s="9">
         <v>60</v>
       </c>
-      <c r="D75" s="31" t="s">
+      <c r="D75" s="34" t="s">
         <v>774</v>
       </c>
       <c r="E75" t="s">
@@ -22719,7 +22785,7 @@
       <c r="A76" s="9">
         <v>61</v>
       </c>
-      <c r="D76" s="31"/>
+      <c r="D76" s="34"/>
       <c r="E76" t="s">
         <v>409</v>
       </c>
@@ -22794,7 +22860,7 @@
       <c r="A77" s="9">
         <v>62</v>
       </c>
-      <c r="D77" s="31"/>
+      <c r="D77" s="34"/>
       <c r="E77" t="s">
         <v>410</v>
       </c>
@@ -22869,7 +22935,7 @@
       <c r="A78" s="9">
         <v>63</v>
       </c>
-      <c r="D78" s="31"/>
+      <c r="D78" s="34"/>
       <c r="E78" t="s">
         <v>232</v>
       </c>
@@ -22944,7 +23010,7 @@
       <c r="A79" s="9">
         <v>64</v>
       </c>
-      <c r="D79" s="31"/>
+      <c r="D79" s="34"/>
       <c r="E79" t="s">
         <v>411</v>
       </c>
@@ -23019,7 +23085,7 @@
       <c r="A80" s="9">
         <v>65</v>
       </c>
-      <c r="D80" s="31"/>
+      <c r="D80" s="34"/>
       <c r="E80" t="s">
         <v>411</v>
       </c>
@@ -23094,7 +23160,7 @@
       <c r="A81" s="9">
         <v>66</v>
       </c>
-      <c r="D81" s="31"/>
+      <c r="D81" s="34"/>
       <c r="E81" t="s">
         <v>412</v>
       </c>
@@ -23172,7 +23238,7 @@
       <c r="C82" s="9">
         <v>9</v>
       </c>
-      <c r="D82" s="31"/>
+      <c r="D82" s="34"/>
       <c r="E82" t="s">
         <v>413</v>
       </c>
@@ -23247,7 +23313,7 @@
       <c r="C83" s="9">
         <v>1</v>
       </c>
-      <c r="D83" s="31" t="s">
+      <c r="D83" s="34" t="s">
         <v>792</v>
       </c>
       <c r="E83" t="s">
@@ -23327,7 +23393,7 @@
       <c r="C84" s="9">
         <v>3</v>
       </c>
-      <c r="D84" s="31"/>
+      <c r="D84" s="34"/>
       <c r="E84" t="s">
         <v>149</v>
       </c>
@@ -23405,7 +23471,7 @@
       <c r="C85" s="9">
         <v>5</v>
       </c>
-      <c r="D85" s="31"/>
+      <c r="D85" s="34"/>
       <c r="E85" t="s">
         <v>149</v>
       </c>
@@ -23483,7 +23549,7 @@
       <c r="C86" s="9">
         <v>7</v>
       </c>
-      <c r="D86" s="31"/>
+      <c r="D86" s="34"/>
       <c r="E86" t="s">
         <v>149</v>
       </c>
@@ -23561,7 +23627,7 @@
       <c r="C87" s="9">
         <v>9</v>
       </c>
-      <c r="D87" s="31"/>
+      <c r="D87" s="34"/>
       <c r="E87" t="s">
         <v>149</v>
       </c>
@@ -24409,7 +24475,7 @@
       <c r="A98" s="9">
         <v>83</v>
       </c>
-      <c r="D98" s="31" t="s">
+      <c r="D98" s="34" t="s">
         <v>806</v>
       </c>
       <c r="E98" t="s">
@@ -24486,7 +24552,7 @@
       <c r="A99" s="9">
         <v>84</v>
       </c>
-      <c r="D99" s="31"/>
+      <c r="D99" s="34"/>
       <c r="E99" t="s">
         <v>409</v>
       </c>
@@ -24801,7 +24867,7 @@
       <c r="C103" s="9">
         <v>7</v>
       </c>
-      <c r="D103" s="31" t="s">
+      <c r="D103" s="34" t="s">
         <v>805</v>
       </c>
       <c r="E103" t="s">
@@ -24881,7 +24947,7 @@
       <c r="C104" s="9">
         <v>5</v>
       </c>
-      <c r="D104" s="31"/>
+      <c r="D104" s="34"/>
       <c r="E104" t="s">
         <v>479</v>
       </c>
@@ -24959,7 +25025,7 @@
       <c r="C105" s="9">
         <v>3</v>
       </c>
-      <c r="D105" s="31"/>
+      <c r="D105" s="34"/>
       <c r="E105" t="s">
         <v>483</v>
       </c>
@@ -25037,7 +25103,7 @@
       <c r="C106" s="9">
         <v>1</v>
       </c>
-      <c r="D106" s="31"/>
+      <c r="D106" s="34"/>
       <c r="E106" t="s">
         <v>82</v>
       </c>
@@ -25485,7 +25551,7 @@
       <c r="A112" s="9">
         <v>97</v>
       </c>
-      <c r="D112" s="31" t="s">
+      <c r="D112" s="34" t="s">
         <v>807</v>
       </c>
       <c r="E112" t="s">
@@ -25559,7 +25625,7 @@
       <c r="A113" s="9">
         <v>98</v>
       </c>
-      <c r="D113" s="31"/>
+      <c r="D113" s="34"/>
       <c r="E113" t="s">
         <v>232</v>
       </c>
@@ -26475,7 +26541,7 @@
       <c r="A125" s="9">
         <v>110</v>
       </c>
-      <c r="D125" s="31" t="s">
+      <c r="D125" s="34" t="s">
         <v>807</v>
       </c>
       <c r="E125" t="s">
@@ -26552,7 +26618,7 @@
       <c r="A126" s="9">
         <v>111</v>
       </c>
-      <c r="D126" s="31"/>
+      <c r="D126" s="34"/>
       <c r="E126" t="s">
         <v>232</v>
       </c>
@@ -26627,7 +26693,7 @@
       <c r="A127" s="9">
         <v>112</v>
       </c>
-      <c r="D127" s="31"/>
+      <c r="D127" s="34"/>
       <c r="E127" t="s">
         <v>549</v>
       </c>
@@ -27448,7 +27514,7 @@
       <c r="A138" s="9">
         <v>123</v>
       </c>
-      <c r="D138" s="31" t="s">
+      <c r="D138" s="34" t="s">
         <v>807</v>
       </c>
       <c r="E138" t="s">
@@ -27525,7 +27591,7 @@
       <c r="A139" s="9">
         <v>124</v>
       </c>
-      <c r="D139" s="31"/>
+      <c r="D139" s="34"/>
       <c r="E139" t="s">
         <v>232</v>
       </c>
@@ -29374,7 +29440,7 @@
       <c r="A163" s="9">
         <v>148</v>
       </c>
-      <c r="D163" s="31" t="s">
+      <c r="D163" s="34" t="s">
         <v>807</v>
       </c>
       <c r="E163" t="s">
@@ -29451,7 +29517,7 @@
       <c r="A164" s="9">
         <v>149</v>
       </c>
-      <c r="D164" s="31"/>
+      <c r="D164" s="34"/>
       <c r="E164" t="s">
         <v>244</v>
       </c>
@@ -29526,7 +29592,7 @@
       <c r="A165" s="9">
         <v>150</v>
       </c>
-      <c r="D165" s="31"/>
+      <c r="D165" s="34"/>
       <c r="E165" t="s">
         <v>232</v>
       </c>
@@ -29755,7 +29821,7 @@
       <c r="A168" s="9">
         <v>153</v>
       </c>
-      <c r="D168" s="31" t="s">
+      <c r="D168" s="34" t="s">
         <v>807</v>
       </c>
       <c r="E168" t="s">
@@ -29832,7 +29898,7 @@
       <c r="A169" s="9">
         <v>154</v>
       </c>
-      <c r="D169" s="31"/>
+      <c r="D169" s="34"/>
       <c r="E169" t="s">
         <v>712</v>
       </c>
@@ -29907,7 +29973,7 @@
       <c r="A170" s="9">
         <v>155</v>
       </c>
-      <c r="D170" s="31"/>
+      <c r="D170" s="34"/>
       <c r="E170" t="s">
         <v>713</v>
       </c>
@@ -29982,7 +30048,7 @@
       <c r="A171" s="9">
         <v>156</v>
       </c>
-      <c r="D171" s="31"/>
+      <c r="D171" s="34"/>
       <c r="E171" t="s">
         <v>714</v>
       </c>
@@ -30057,7 +30123,7 @@
       <c r="A172" s="9">
         <v>157</v>
       </c>
-      <c r="D172" s="31"/>
+      <c r="D172" s="34"/>
       <c r="E172" t="s">
         <v>715</v>
       </c>
@@ -30132,7 +30198,7 @@
       <c r="A173" s="9">
         <v>158</v>
       </c>
-      <c r="D173" s="31"/>
+      <c r="D173" s="34"/>
       <c r="E173" t="s">
         <v>716</v>
       </c>
@@ -31054,7 +31120,7 @@
       <c r="A185" s="9">
         <v>170</v>
       </c>
-      <c r="D185" s="31" t="s">
+      <c r="D185" s="34" t="s">
         <v>807</v>
       </c>
       <c r="E185" t="s">
@@ -31131,7 +31197,7 @@
       <c r="A186" s="9">
         <v>171</v>
       </c>
-      <c r="D186" s="31"/>
+      <c r="D186" s="34"/>
       <c r="E186" t="s">
         <v>244</v>
       </c>
@@ -31594,6 +31660,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D163:D165"/>
+    <mergeCell ref="D168:D173"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D125:D127"/>
+    <mergeCell ref="D138:D139"/>
     <mergeCell ref="D83:D87"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="H3:I3"/>
@@ -31610,14 +31684,6 @@
     <mergeCell ref="D48:D50"/>
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="D75:D82"/>
-    <mergeCell ref="D163:D165"/>
-    <mergeCell ref="D168:D173"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D125:D127"/>
-    <mergeCell ref="D138:D139"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31637,14 +31703,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
@@ -31905,18 +31971,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
@@ -32063,18 +32129,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">

--- a/S7G2_Titan/2023_Sep_25_MD_Controller_IO_Map_32_bit_S7G2_Titan_6L.xlsx
+++ b/S7G2_Titan/2023_Sep_25_MD_Controller_IO_Map_32_bit_S7G2_Titan_6L.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\32-bit-controller\S7G2_Titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCA63BB-5047-4414-9EE6-24EF141CB22D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC777C35-90AD-48EB-AFF5-E8EDB75FC928}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="1703" windowWidth="28995" windowHeight="15795" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="2903" windowWidth="28995" windowHeight="15795" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S7G2_6L_IO" sheetId="16" r:id="rId1"/>
@@ -3822,7 +3822,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>

--- a/S7G2_Titan/2023_Sep_25_MD_Controller_IO_Map_32_bit_S7G2_Titan_6L.xlsx
+++ b/S7G2_Titan/2023_Sep_25_MD_Controller_IO_Map_32_bit_S7G2_Titan_6L.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\32-bit-controller\S7G2_Titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC777C35-90AD-48EB-AFF5-E8EDB75FC928}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A99C34E-2AED-463A-A173-49CCF6FA3441}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="2903" windowWidth="28995" windowHeight="15795" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="3503" windowWidth="28995" windowHeight="15795" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S7G2_6L_IO" sheetId="16" r:id="rId1"/>
@@ -2983,9 +2983,6 @@
     <t>P6_09</t>
   </si>
   <si>
-    <t>P6_8</t>
-  </si>
-  <si>
     <t>P1_15</t>
   </si>
   <si>
@@ -3152,6 +3149,9 @@
   </si>
   <si>
     <t>IRQ05</t>
+  </si>
+  <si>
+    <t>P6_08</t>
   </si>
 </sst>
 </file>
@@ -3822,7 +3822,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3834,7 +3834,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>10</v>
@@ -3855,7 +3855,7 @@
         <v>56</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -3867,7 +3867,7 @@
         <v>55</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -3879,7 +3879,7 @@
         <v>52</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -3891,7 +3891,7 @@
         <v>49</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -3975,7 +3975,7 @@
       </c>
       <c r="J11" s="30"/>
       <c r="K11" s="30" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="J12" s="30"/>
       <c r="K12" s="30" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -4037,7 +4037,7 @@
       </c>
       <c r="J13" s="30"/>
       <c r="K13" s="30" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="J14" s="30"/>
       <c r="K14" s="30" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="J15" s="30"/>
       <c r="K15" s="30" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -4130,7 +4130,7 @@
       </c>
       <c r="J16" s="30"/>
       <c r="K16" s="30" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -4179,13 +4179,13 @@
       </c>
       <c r="F18" s="30"/>
       <c r="G18" s="30" t="s">
+        <v>988</v>
+      </c>
+      <c r="H18" s="30" t="s">
         <v>989</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="I18" s="30" t="s">
         <v>990</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>991</v>
       </c>
       <c r="J18" s="30"/>
       <c r="K18" s="30" t="s">
@@ -4207,17 +4207,17 @@
       </c>
       <c r="F19" s="30"/>
       <c r="G19" s="30" t="s">
+        <v>985</v>
+      </c>
+      <c r="H19" s="30" t="s">
         <v>986</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="I19" s="30" t="s">
         <v>987</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>988</v>
       </c>
       <c r="J19" s="30"/>
       <c r="K19" s="30" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -4235,13 +4235,13 @@
       </c>
       <c r="F20" s="30"/>
       <c r="G20" s="30" t="s">
+        <v>982</v>
+      </c>
+      <c r="H20" s="30" t="s">
         <v>983</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="I20" s="30" t="s">
         <v>984</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>985</v>
       </c>
       <c r="J20" s="30"/>
       <c r="K20" s="30" t="s">
@@ -4265,13 +4265,13 @@
         <v>980</v>
       </c>
       <c r="H21" s="30" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I21" s="30" t="s">
         <v>981</v>
       </c>
-      <c r="I21" s="30" t="s">
-        <v>982</v>
-      </c>
       <c r="K21" s="30" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -4297,13 +4297,13 @@
         <v>979</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B29" s="30"/>
       <c r="C29" s="33" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D29" s="33"/>
       <c r="F29" s="30" t="s">
@@ -4312,7 +4312,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="30" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B30" s="30" t="s">
         <v>10</v>
@@ -4324,7 +4324,7 @@
         <v>11</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>63</v>
@@ -4341,13 +4341,13 @@
         <v>50</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E31" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -4361,13 +4361,13 @@
         <v>51</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -4381,13 +4381,13 @@
         <v>53</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E33" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -4401,13 +4401,13 @@
         <v>54</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E34" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -4421,13 +4421,13 @@
         <v>81</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E35" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -4441,13 +4441,13 @@
         <v>82</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E36" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -4459,13 +4459,13 @@
         <v>86</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E37" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -4477,13 +4477,13 @@
         <v>87</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E38" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -4495,13 +4495,13 @@
         <v>92</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E39" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -4509,13 +4509,13 @@
         <v>10</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C40" s="30">
         <v>69</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E40" t="s">
         <v>415</v>
@@ -31660,14 +31660,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D163:D165"/>
-    <mergeCell ref="D168:D173"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D125:D127"/>
-    <mergeCell ref="D138:D139"/>
     <mergeCell ref="D83:D87"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="H3:I3"/>
@@ -31684,6 +31676,14 @@
     <mergeCell ref="D48:D50"/>
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="D75:D82"/>
+    <mergeCell ref="D163:D165"/>
+    <mergeCell ref="D168:D173"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D125:D127"/>
+    <mergeCell ref="D138:D139"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/S7G2_Titan/2023_Sep_25_MD_Controller_IO_Map_32_bit_S7G2_Titan_6L.xlsx
+++ b/S7G2_Titan/2023_Sep_25_MD_Controller_IO_Map_32_bit_S7G2_Titan_6L.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\32-bit-controller\S7G2_Titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A99C34E-2AED-463A-A173-49CCF6FA3441}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B45907-0F7E-46D1-A5D1-E4A7A941B458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="3503" windowWidth="28995" windowHeight="15795" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16643" yWindow="1402" windowWidth="11782" windowHeight="11513" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S7G2_6L_IO" sheetId="16" r:id="rId1"/>
@@ -22,6 +22,19 @@
     <sheet name="Rack and Pinion" sheetId="15" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3258,7 +3271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -3339,13 +3352,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3821,706 +3827,705 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9478DC9D-482E-4825-8833-7BA9E60F25F7}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.265625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="8.265625" style="9" customWidth="1"/>
     <col min="2" max="2" width="8.265625" customWidth="1"/>
-    <col min="7" max="9" width="9.06640625" style="30"/>
+    <col min="7" max="9" width="9.06640625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="9" t="s">
         <v>994</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="30">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9">
         <v>56</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="9" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="30">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9">
         <v>55</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="9" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="30">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9">
         <v>52</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="9" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="30">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9">
         <v>49</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="9" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B9" s="32"/>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="30" t="s">
         <v>942</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33" t="s">
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30" t="s">
         <v>941</v>
       </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
       <c r="K9" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="9" t="s">
         <v>934</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="9" t="s">
         <v>935</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="9" t="s">
         <v>936</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="9" t="s">
         <v>937</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="9" t="s">
         <v>938</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="9" t="s">
         <v>935</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="9" t="s">
         <v>936</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="9" t="s">
         <v>937</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="9" t="s">
         <v>938</v>
       </c>
-      <c r="K10" s="30" t="s">
+      <c r="K10" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="9" t="s">
         <v>965</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="9" t="s">
         <v>939</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="9">
         <v>137</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="9">
         <v>136</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="9">
         <v>135</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="s">
         <v>944</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="9" t="s">
         <v>945</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="9" t="s">
         <v>946</v>
       </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30" t="s">
+      <c r="J11" s="9"/>
+      <c r="K11" s="9" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="9" t="s">
         <v>966</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="9" t="s">
         <v>940</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="9">
         <v>134</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="9">
         <v>133</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="9">
         <v>130</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
         <v>947</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="9" t="s">
         <v>948</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="9" t="s">
         <v>949</v>
       </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30" t="s">
+      <c r="J12" s="9"/>
+      <c r="K12" s="9" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="9">
         <v>129</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="9">
         <v>128</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="9">
         <v>127</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30" t="s">
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="s">
         <v>950</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="9" t="s">
         <v>951</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="9" t="s">
         <v>952</v>
       </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30" t="s">
+      <c r="J13" s="9"/>
+      <c r="K13" s="9" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="9" t="s">
         <v>968</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="9" t="s">
         <v>931</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="9">
         <v>126</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="9">
         <v>125</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="9">
         <v>122</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30" t="s">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9" t="s">
         <v>953</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="9" t="s">
         <v>954</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30" t="s">
+      <c r="J14" s="9"/>
+      <c r="K14" s="9" t="s">
         <v>1022</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="9">
         <v>121</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="9">
         <v>120</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="9">
         <v>119</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30" t="s">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9" t="s">
         <v>955</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="9" t="s">
         <v>957</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="9" t="s">
         <v>958</v>
       </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30" t="s">
+      <c r="J15" s="9"/>
+      <c r="K15" s="9" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="9" t="s">
         <v>970</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="9" t="s">
         <v>932</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="9">
         <v>118</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="9">
         <v>117</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="9">
         <v>116</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30" t="s">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9" t="s">
         <v>959</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="9" t="s">
         <v>960</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="9" t="s">
         <v>961</v>
       </c>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30" t="s">
+      <c r="J16" s="9"/>
+      <c r="K16" s="9" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="9" t="s">
         <v>971</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="9" t="s">
         <v>933</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="9">
         <v>115</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="9">
         <v>114</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="9">
         <v>113</v>
       </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
         <v>962</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="9" t="s">
         <v>963</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="9" t="s">
         <v>964</v>
       </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30" t="s">
+      <c r="J17" s="9"/>
+      <c r="K17" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="9" t="s">
         <v>972</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="9">
         <v>109</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="9">
         <v>108</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="9">
         <v>107</v>
       </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30" t="s">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9" t="s">
         <v>988</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="9" t="s">
         <v>989</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="I18" s="9" t="s">
         <v>990</v>
       </c>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30" t="s">
+      <c r="J18" s="9"/>
+      <c r="K18" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="9" t="s">
         <v>973</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="9">
         <v>106</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="9">
         <v>105</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="9">
         <v>104</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30" t="s">
+      <c r="F19" s="9"/>
+      <c r="G19" s="9" t="s">
         <v>985</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="9" t="s">
         <v>986</v>
       </c>
-      <c r="I19" s="30" t="s">
+      <c r="I19" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30" t="s">
+      <c r="J19" s="9"/>
+      <c r="K19" s="9" t="s">
         <v>1024</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="9">
         <v>103</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="9">
         <v>102</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="9">
         <v>101</v>
       </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30" t="s">
+      <c r="F20" s="9"/>
+      <c r="G20" s="9" t="s">
         <v>982</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="9" t="s">
         <v>983</v>
       </c>
-      <c r="I20" s="30" t="s">
+      <c r="I20" s="9" t="s">
         <v>984</v>
       </c>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30" t="s">
+      <c r="J20" s="9"/>
+      <c r="K20" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="9" t="s">
         <v>975</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="9">
         <v>100</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="9">
         <v>99</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="9">
         <v>96</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="9" t="s">
         <v>980</v>
       </c>
-      <c r="H21" s="30" t="s">
+      <c r="H21" s="9" t="s">
         <v>1037</v>
       </c>
-      <c r="I21" s="30" t="s">
+      <c r="I21" s="9" t="s">
         <v>981</v>
       </c>
-      <c r="K21" s="30" t="s">
+      <c r="K21" s="9" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="9">
         <v>95</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="9">
         <v>94</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="9">
         <v>93</v>
       </c>
-      <c r="G22" s="30" t="s">
+      <c r="G22" s="9" t="s">
         <v>977</v>
       </c>
-      <c r="H22" s="30" t="s">
+      <c r="H22" s="9" t="s">
         <v>978</v>
       </c>
-      <c r="I22" s="30" t="s">
+      <c r="I22" s="9" t="s">
         <v>979</v>
       </c>
-      <c r="K22" s="30" t="s">
+      <c r="K22" s="9" t="s">
         <v>1026</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B29" s="30"/>
-      <c r="C29" s="33" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="30" t="s">
         <v>993</v>
       </c>
-      <c r="D29" s="33"/>
-      <c r="F29" s="30" t="s">
+      <c r="D29" s="30"/>
+      <c r="F29" s="9" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="9" t="s">
         <v>991</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="9" t="s">
         <v>1027</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="F30" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="30">
+      <c r="A31" s="9">
         <v>1</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="9" t="s">
         <v>939</v>
       </c>
-      <c r="C31" s="30">
+      <c r="C31" s="9">
         <v>50</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="9" t="s">
         <v>997</v>
       </c>
       <c r="E31" t="s">
         <v>1028</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="9" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="30">
+      <c r="A32" s="9">
         <v>2</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="9" t="s">
         <v>940</v>
       </c>
-      <c r="C32" s="30">
+      <c r="C32" s="9">
         <v>51</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="9" t="s">
         <v>998</v>
       </c>
       <c r="E32" t="s">
         <v>1029</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="F32" s="9" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="30">
+      <c r="A33" s="9">
         <v>3</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="30">
+      <c r="C33" s="9">
         <v>53</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="9" t="s">
         <v>1000</v>
       </c>
       <c r="E33" t="s">
         <v>1032</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="9" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="30">
+      <c r="A34" s="9">
         <v>4</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="9" t="s">
         <v>931</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="9">
         <v>54</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="9" t="s">
         <v>1001</v>
       </c>
       <c r="E34" t="s">
         <v>1030</v>
       </c>
-      <c r="F34" s="30" t="s">
+      <c r="F34" s="9" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="30">
+      <c r="A35" s="9">
         <v>5</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="30">
+      <c r="C35" s="9">
         <v>81</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="9" t="s">
         <v>999</v>
       </c>
       <c r="E35" t="s">
         <v>1035</v>
       </c>
-      <c r="F35" s="30" t="s">
+      <c r="F35" s="9" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="30">
+      <c r="A36" s="9">
         <v>6</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="9" t="s">
         <v>932</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="9">
         <v>82</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="9" t="s">
         <v>1007</v>
       </c>
       <c r="E36" t="s">
         <v>1034</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="F36" s="9" t="s">
         <v>1014</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="30">
+      <c r="A37" s="9">
         <v>7</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9">
         <v>86</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="9" t="s">
         <v>1006</v>
       </c>
       <c r="E37" t="s">
         <v>1036</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="9" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="30">
+      <c r="A38" s="9">
         <v>8</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9">
         <v>87</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="9" t="s">
         <v>1005</v>
       </c>
       <c r="E38" t="s">
         <v>1033</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="9" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="30">
+      <c r="A39" s="9">
         <v>9</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9">
         <v>92</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="9" t="s">
         <v>1008</v>
       </c>
       <c r="E39" t="s">
         <v>1031</v>
       </c>
-      <c r="F39" s="30" t="s">
+      <c r="F39" s="9" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="30">
+      <c r="A40" s="9">
         <v>10</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="9" t="s">
         <v>992</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C40" s="9">
         <v>69</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="9" t="s">
         <v>1004</v>
       </c>
       <c r="E40" t="s">
         <v>415</v>
       </c>
-      <c r="F40" s="30" t="s">
+      <c r="F40" s="9" t="s">
         <v>851</v>
       </c>
     </row>
@@ -17913,7 +17918,7 @@
       <c r="G236" s="20"/>
     </row>
   </sheetData>
-  <sortState ref="A5:AD184">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:AD184">
     <sortCondition ref="A5:A184"/>
     <sortCondition ref="D5:D184"/>
   </sortState>
@@ -17942,11 +17947,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
       <c r="E3" t="s">
         <v>115</v>
       </c>
@@ -17956,28 +17961,28 @@
       <c r="G3" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33" t="s">
+      <c r="I3" s="30"/>
+      <c r="J3" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33" t="s">
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
       <c r="X3" t="s">
         <v>121</v>
       </c>
@@ -18066,7 +18071,7 @@
       <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="30" t="s">
         <v>107</v>
       </c>
     </row>
@@ -18074,13 +18079,13 @@
       <c r="C6" s="9">
         <v>2</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C7" s="9">
         <v>3</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="30" t="s">
         <v>794</v>
       </c>
     </row>
@@ -18088,13 +18093,13 @@
       <c r="C8" s="9">
         <v>4</v>
       </c>
-      <c r="D8" s="33"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C9" s="9">
         <v>5</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="30" t="s">
         <v>795</v>
       </c>
     </row>
@@ -18102,13 +18107,13 @@
       <c r="C10" s="9">
         <v>6</v>
       </c>
-      <c r="D10" s="33"/>
+      <c r="D10" s="30"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C11" s="9">
         <v>7</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="30" t="s">
         <v>796</v>
       </c>
     </row>
@@ -18116,13 +18121,13 @@
       <c r="C12" s="9">
         <v>8</v>
       </c>
-      <c r="D12" s="33"/>
+      <c r="D12" s="30"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C13" s="9">
         <v>9</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="32" t="s">
         <v>797</v>
       </c>
     </row>
@@ -18130,7 +18135,7 @@
       <c r="C14" s="9">
         <v>10</v>
       </c>
-      <c r="D14" s="33"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="N15" t="s">
@@ -18396,7 +18401,7 @@
       <c r="A19" s="9">
         <v>4</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="31" t="s">
         <v>768</v>
       </c>
       <c r="E19" t="s">
@@ -18473,7 +18478,7 @@
       <c r="A20" s="9">
         <v>5</v>
       </c>
-      <c r="D20" s="34"/>
+      <c r="D20" s="31"/>
       <c r="E20" t="s">
         <v>149</v>
       </c>
@@ -18548,7 +18553,7 @@
       <c r="A21" s="9">
         <v>6</v>
       </c>
-      <c r="D21" s="34"/>
+      <c r="D21" s="31"/>
       <c r="E21" t="s">
         <v>149</v>
       </c>
@@ -18623,7 +18628,7 @@
       <c r="A22" s="9">
         <v>7</v>
       </c>
-      <c r="D22" s="34"/>
+      <c r="D22" s="31"/>
       <c r="E22" t="s">
         <v>149</v>
       </c>
@@ -18698,7 +18703,7 @@
       <c r="A23" s="9">
         <v>8</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="31"/>
       <c r="E23" t="s">
         <v>149</v>
       </c>
@@ -18773,7 +18778,7 @@
       <c r="A24" s="9">
         <v>9</v>
       </c>
-      <c r="D24" s="34"/>
+      <c r="D24" s="31"/>
       <c r="E24" t="s">
         <v>149</v>
       </c>
@@ -18848,7 +18853,7 @@
       <c r="A25" s="9">
         <v>10</v>
       </c>
-      <c r="D25" s="34"/>
+      <c r="D25" s="31"/>
       <c r="E25" t="s">
         <v>149</v>
       </c>
@@ -18923,7 +18928,7 @@
       <c r="A26" s="9">
         <v>11</v>
       </c>
-      <c r="D26" s="34"/>
+      <c r="D26" s="31"/>
       <c r="E26" t="s">
         <v>149</v>
       </c>
@@ -18998,7 +19003,7 @@
       <c r="A27" s="9">
         <v>12</v>
       </c>
-      <c r="D27" s="34"/>
+      <c r="D27" s="31"/>
       <c r="E27" t="s">
         <v>149</v>
       </c>
@@ -19073,7 +19078,7 @@
       <c r="A28" s="9">
         <v>13</v>
       </c>
-      <c r="D28" s="34"/>
+      <c r="D28" s="31"/>
       <c r="E28" t="s">
         <v>149</v>
       </c>
@@ -19530,7 +19535,7 @@
       <c r="A34" s="9">
         <v>19</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="31" t="s">
         <v>770</v>
       </c>
       <c r="E34" t="s">
@@ -19607,7 +19612,7 @@
       <c r="A35" s="9">
         <v>20</v>
       </c>
-      <c r="D35" s="34"/>
+      <c r="D35" s="31"/>
       <c r="E35" t="s">
         <v>230</v>
       </c>
@@ -19682,7 +19687,7 @@
       <c r="A36" s="9">
         <v>21</v>
       </c>
-      <c r="D36" s="34"/>
+      <c r="D36" s="31"/>
       <c r="E36" t="s">
         <v>231</v>
       </c>
@@ -19757,7 +19762,7 @@
       <c r="A37" s="9">
         <v>22</v>
       </c>
-      <c r="D37" s="34"/>
+      <c r="D37" s="31"/>
       <c r="E37" t="s">
         <v>232</v>
       </c>
@@ -19832,7 +19837,7 @@
       <c r="A38" s="9">
         <v>23</v>
       </c>
-      <c r="D38" s="34"/>
+      <c r="D38" s="31"/>
       <c r="E38" t="s">
         <v>233</v>
       </c>
@@ -19907,7 +19912,7 @@
       <c r="A39" s="9">
         <v>24</v>
       </c>
-      <c r="D39" s="34"/>
+      <c r="D39" s="31"/>
       <c r="E39" t="s">
         <v>238</v>
       </c>
@@ -19982,7 +19987,7 @@
       <c r="A40" s="9">
         <v>25</v>
       </c>
-      <c r="D40" s="34"/>
+      <c r="D40" s="31"/>
       <c r="E40" t="s">
         <v>244</v>
       </c>
@@ -20057,7 +20062,7 @@
       <c r="A41" s="9">
         <v>26</v>
       </c>
-      <c r="D41" s="34"/>
+      <c r="D41" s="31"/>
       <c r="E41" t="s">
         <v>245</v>
       </c>
@@ -20132,7 +20137,7 @@
       <c r="A42" s="9">
         <v>27</v>
       </c>
-      <c r="D42" s="34"/>
+      <c r="D42" s="31"/>
       <c r="E42" t="s">
         <v>246</v>
       </c>
@@ -20207,7 +20212,7 @@
       <c r="A43" s="9">
         <v>28</v>
       </c>
-      <c r="D43" s="34"/>
+      <c r="D43" s="31"/>
       <c r="E43" t="s">
         <v>247</v>
       </c>
@@ -20282,7 +20287,7 @@
       <c r="A44" s="9">
         <v>29</v>
       </c>
-      <c r="D44" s="34"/>
+      <c r="D44" s="31"/>
       <c r="E44" t="s">
         <v>248</v>
       </c>
@@ -20357,7 +20362,7 @@
       <c r="A45" s="9">
         <v>30</v>
       </c>
-      <c r="D45" s="34"/>
+      <c r="D45" s="31"/>
       <c r="E45" t="s">
         <v>249</v>
       </c>
@@ -20432,7 +20437,7 @@
       <c r="A46" s="9">
         <v>31</v>
       </c>
-      <c r="D46" s="34" t="s">
+      <c r="D46" s="31" t="s">
         <v>771</v>
       </c>
       <c r="E46" t="s">
@@ -20509,7 +20514,7 @@
       <c r="A47" s="9">
         <v>32</v>
       </c>
-      <c r="D47" s="34"/>
+      <c r="D47" s="31"/>
       <c r="E47" t="s">
         <v>149</v>
       </c>
@@ -20584,7 +20589,7 @@
       <c r="A48" s="9">
         <v>33</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D48" s="31" t="s">
         <v>774</v>
       </c>
       <c r="E48" t="s">
@@ -20661,7 +20666,7 @@
       <c r="A49" s="9">
         <v>34</v>
       </c>
-      <c r="D49" s="34"/>
+      <c r="D49" s="31"/>
       <c r="E49" t="s">
         <v>251</v>
       </c>
@@ -20736,7 +20741,7 @@
       <c r="A50" s="9">
         <v>35</v>
       </c>
-      <c r="D50" s="34"/>
+      <c r="D50" s="31"/>
       <c r="E50" t="s">
         <v>232</v>
       </c>
@@ -21608,7 +21613,7 @@
       <c r="C61" s="9">
         <v>2</v>
       </c>
-      <c r="D61" s="34" t="s">
+      <c r="D61" s="31" t="s">
         <v>783</v>
       </c>
       <c r="F61" t="s">
@@ -21685,7 +21690,7 @@
       <c r="C62" s="9">
         <v>3</v>
       </c>
-      <c r="D62" s="34"/>
+      <c r="D62" s="31"/>
       <c r="F62" t="s">
         <v>149</v>
       </c>
@@ -22708,7 +22713,7 @@
       <c r="A75" s="9">
         <v>60</v>
       </c>
-      <c r="D75" s="34" t="s">
+      <c r="D75" s="31" t="s">
         <v>774</v>
       </c>
       <c r="E75" t="s">
@@ -22785,7 +22790,7 @@
       <c r="A76" s="9">
         <v>61</v>
       </c>
-      <c r="D76" s="34"/>
+      <c r="D76" s="31"/>
       <c r="E76" t="s">
         <v>409</v>
       </c>
@@ -22860,7 +22865,7 @@
       <c r="A77" s="9">
         <v>62</v>
       </c>
-      <c r="D77" s="34"/>
+      <c r="D77" s="31"/>
       <c r="E77" t="s">
         <v>410</v>
       </c>
@@ -22935,7 +22940,7 @@
       <c r="A78" s="9">
         <v>63</v>
       </c>
-      <c r="D78" s="34"/>
+      <c r="D78" s="31"/>
       <c r="E78" t="s">
         <v>232</v>
       </c>
@@ -23010,7 +23015,7 @@
       <c r="A79" s="9">
         <v>64</v>
       </c>
-      <c r="D79" s="34"/>
+      <c r="D79" s="31"/>
       <c r="E79" t="s">
         <v>411</v>
       </c>
@@ -23085,7 +23090,7 @@
       <c r="A80" s="9">
         <v>65</v>
       </c>
-      <c r="D80" s="34"/>
+      <c r="D80" s="31"/>
       <c r="E80" t="s">
         <v>411</v>
       </c>
@@ -23160,7 +23165,7 @@
       <c r="A81" s="9">
         <v>66</v>
       </c>
-      <c r="D81" s="34"/>
+      <c r="D81" s="31"/>
       <c r="E81" t="s">
         <v>412</v>
       </c>
@@ -23238,7 +23243,7 @@
       <c r="C82" s="9">
         <v>9</v>
       </c>
-      <c r="D82" s="34"/>
+      <c r="D82" s="31"/>
       <c r="E82" t="s">
         <v>413</v>
       </c>
@@ -23313,7 +23318,7 @@
       <c r="C83" s="9">
         <v>1</v>
       </c>
-      <c r="D83" s="34" t="s">
+      <c r="D83" s="31" t="s">
         <v>792</v>
       </c>
       <c r="E83" t="s">
@@ -23393,7 +23398,7 @@
       <c r="C84" s="9">
         <v>3</v>
       </c>
-      <c r="D84" s="34"/>
+      <c r="D84" s="31"/>
       <c r="E84" t="s">
         <v>149</v>
       </c>
@@ -23471,7 +23476,7 @@
       <c r="C85" s="9">
         <v>5</v>
       </c>
-      <c r="D85" s="34"/>
+      <c r="D85" s="31"/>
       <c r="E85" t="s">
         <v>149</v>
       </c>
@@ -23549,7 +23554,7 @@
       <c r="C86" s="9">
         <v>7</v>
       </c>
-      <c r="D86" s="34"/>
+      <c r="D86" s="31"/>
       <c r="E86" t="s">
         <v>149</v>
       </c>
@@ -23627,7 +23632,7 @@
       <c r="C87" s="9">
         <v>9</v>
       </c>
-      <c r="D87" s="34"/>
+      <c r="D87" s="31"/>
       <c r="E87" t="s">
         <v>149</v>
       </c>
@@ -24475,7 +24480,7 @@
       <c r="A98" s="9">
         <v>83</v>
       </c>
-      <c r="D98" s="34" t="s">
+      <c r="D98" s="31" t="s">
         <v>806</v>
       </c>
       <c r="E98" t="s">
@@ -24552,7 +24557,7 @@
       <c r="A99" s="9">
         <v>84</v>
       </c>
-      <c r="D99" s="34"/>
+      <c r="D99" s="31"/>
       <c r="E99" t="s">
         <v>409</v>
       </c>
@@ -24867,7 +24872,7 @@
       <c r="C103" s="9">
         <v>7</v>
       </c>
-      <c r="D103" s="34" t="s">
+      <c r="D103" s="31" t="s">
         <v>805</v>
       </c>
       <c r="E103" t="s">
@@ -24947,7 +24952,7 @@
       <c r="C104" s="9">
         <v>5</v>
       </c>
-      <c r="D104" s="34"/>
+      <c r="D104" s="31"/>
       <c r="E104" t="s">
         <v>479</v>
       </c>
@@ -25025,7 +25030,7 @@
       <c r="C105" s="9">
         <v>3</v>
       </c>
-      <c r="D105" s="34"/>
+      <c r="D105" s="31"/>
       <c r="E105" t="s">
         <v>483</v>
       </c>
@@ -25103,7 +25108,7 @@
       <c r="C106" s="9">
         <v>1</v>
       </c>
-      <c r="D106" s="34"/>
+      <c r="D106" s="31"/>
       <c r="E106" t="s">
         <v>82</v>
       </c>
@@ -25551,7 +25556,7 @@
       <c r="A112" s="9">
         <v>97</v>
       </c>
-      <c r="D112" s="34" t="s">
+      <c r="D112" s="31" t="s">
         <v>807</v>
       </c>
       <c r="E112" t="s">
@@ -25625,7 +25630,7 @@
       <c r="A113" s="9">
         <v>98</v>
       </c>
-      <c r="D113" s="34"/>
+      <c r="D113" s="31"/>
       <c r="E113" t="s">
         <v>232</v>
       </c>
@@ -26541,7 +26546,7 @@
       <c r="A125" s="9">
         <v>110</v>
       </c>
-      <c r="D125" s="34" t="s">
+      <c r="D125" s="31" t="s">
         <v>807</v>
       </c>
       <c r="E125" t="s">
@@ -26618,7 +26623,7 @@
       <c r="A126" s="9">
         <v>111</v>
       </c>
-      <c r="D126" s="34"/>
+      <c r="D126" s="31"/>
       <c r="E126" t="s">
         <v>232</v>
       </c>
@@ -26693,7 +26698,7 @@
       <c r="A127" s="9">
         <v>112</v>
       </c>
-      <c r="D127" s="34"/>
+      <c r="D127" s="31"/>
       <c r="E127" t="s">
         <v>549</v>
       </c>
@@ -27514,7 +27519,7 @@
       <c r="A138" s="9">
         <v>123</v>
       </c>
-      <c r="D138" s="34" t="s">
+      <c r="D138" s="31" t="s">
         <v>807</v>
       </c>
       <c r="E138" t="s">
@@ -27591,7 +27596,7 @@
       <c r="A139" s="9">
         <v>124</v>
       </c>
-      <c r="D139" s="34"/>
+      <c r="D139" s="31"/>
       <c r="E139" t="s">
         <v>232</v>
       </c>
@@ -29440,7 +29445,7 @@
       <c r="A163" s="9">
         <v>148</v>
       </c>
-      <c r="D163" s="34" t="s">
+      <c r="D163" s="31" t="s">
         <v>807</v>
       </c>
       <c r="E163" t="s">
@@ -29517,7 +29522,7 @@
       <c r="A164" s="9">
         <v>149</v>
       </c>
-      <c r="D164" s="34"/>
+      <c r="D164" s="31"/>
       <c r="E164" t="s">
         <v>244</v>
       </c>
@@ -29592,7 +29597,7 @@
       <c r="A165" s="9">
         <v>150</v>
       </c>
-      <c r="D165" s="34"/>
+      <c r="D165" s="31"/>
       <c r="E165" t="s">
         <v>232</v>
       </c>
@@ -29821,7 +29826,7 @@
       <c r="A168" s="9">
         <v>153</v>
       </c>
-      <c r="D168" s="34" t="s">
+      <c r="D168" s="31" t="s">
         <v>807</v>
       </c>
       <c r="E168" t="s">
@@ -29898,7 +29903,7 @@
       <c r="A169" s="9">
         <v>154</v>
       </c>
-      <c r="D169" s="34"/>
+      <c r="D169" s="31"/>
       <c r="E169" t="s">
         <v>712</v>
       </c>
@@ -29973,7 +29978,7 @@
       <c r="A170" s="9">
         <v>155</v>
       </c>
-      <c r="D170" s="34"/>
+      <c r="D170" s="31"/>
       <c r="E170" t="s">
         <v>713</v>
       </c>
@@ -30048,7 +30053,7 @@
       <c r="A171" s="9">
         <v>156</v>
       </c>
-      <c r="D171" s="34"/>
+      <c r="D171" s="31"/>
       <c r="E171" t="s">
         <v>714</v>
       </c>
@@ -30123,7 +30128,7 @@
       <c r="A172" s="9">
         <v>157</v>
       </c>
-      <c r="D172" s="34"/>
+      <c r="D172" s="31"/>
       <c r="E172" t="s">
         <v>715</v>
       </c>
@@ -30198,7 +30203,7 @@
       <c r="A173" s="9">
         <v>158</v>
       </c>
-      <c r="D173" s="34"/>
+      <c r="D173" s="31"/>
       <c r="E173" t="s">
         <v>716</v>
       </c>
@@ -31120,7 +31125,7 @@
       <c r="A185" s="9">
         <v>170</v>
       </c>
-      <c r="D185" s="34" t="s">
+      <c r="D185" s="31" t="s">
         <v>807</v>
       </c>
       <c r="E185" t="s">
@@ -31197,7 +31202,7 @@
       <c r="A186" s="9">
         <v>171</v>
       </c>
-      <c r="D186" s="34"/>
+      <c r="D186" s="31"/>
       <c r="E186" t="s">
         <v>244</v>
       </c>
@@ -31660,6 +31665,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D163:D165"/>
+    <mergeCell ref="D168:D173"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D125:D127"/>
+    <mergeCell ref="D138:D139"/>
     <mergeCell ref="D83:D87"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="H3:I3"/>
@@ -31676,14 +31689,6 @@
     <mergeCell ref="D48:D50"/>
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="D75:D82"/>
-    <mergeCell ref="D163:D165"/>
-    <mergeCell ref="D168:D173"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D125:D127"/>
-    <mergeCell ref="D138:D139"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31703,14 +31708,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
@@ -31971,18 +31976,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
@@ -32129,18 +32134,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">

--- a/S7G2_Titan/2023_Sep_25_MD_Controller_IO_Map_32_bit_S7G2_Titan_6L.xlsx
+++ b/S7G2_Titan/2023_Sep_25_MD_Controller_IO_Map_32_bit_S7G2_Titan_6L.xlsx
@@ -1,45 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\32-bit-controller\S7G2_Titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B45907-0F7E-46D1-A5D1-E4A7A941B458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F21C32-54CC-465C-839F-7A60A2539EEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16643" yWindow="1402" windowWidth="11782" windowHeight="11513" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16643" yWindow="2003" windowWidth="11783" windowHeight="11513" tabRatio="516" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S7G2_6L_IO" sheetId="16" r:id="rId1"/>
-    <sheet name="Controller Headers" sheetId="13" r:id="rId2"/>
-    <sheet name="IO_Map_176" sheetId="14" r:id="rId3"/>
-    <sheet name="GPT Map" sheetId="9" r:id="rId4"/>
-    <sheet name="Z-axis Speed Cals" sheetId="2" r:id="rId5"/>
-    <sheet name="X_Y axis speed calcs" sheetId="11" r:id="rId6"/>
-    <sheet name="Rack and Pinion" sheetId="15" r:id="rId7"/>
+    <sheet name="S5D3_6L_IO" sheetId="17" r:id="rId2"/>
+    <sheet name="Controller Headers" sheetId="13" r:id="rId3"/>
+    <sheet name="IO_Map_176" sheetId="14" r:id="rId4"/>
+    <sheet name="GPT Map" sheetId="9" r:id="rId5"/>
+    <sheet name="Z-axis Speed Cals" sheetId="2" r:id="rId6"/>
+    <sheet name="X_Y axis speed calcs" sheetId="11" r:id="rId7"/>
+    <sheet name="Rack and Pinion" sheetId="15" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7529" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7660" uniqueCount="1084">
   <si>
     <t>A</t>
   </si>
@@ -3165,6 +3153,144 @@
   </si>
   <si>
     <t>P6_08</t>
+  </si>
+  <si>
+    <t>P4_07</t>
+  </si>
+  <si>
+    <t>P4_08</t>
+  </si>
+  <si>
+    <t>P4_09</t>
+  </si>
+  <si>
+    <t>P4_10</t>
+  </si>
+  <si>
+    <t>P4_11</t>
+  </si>
+  <si>
+    <t>SPI</t>
+  </si>
+  <si>
+    <t>SPI0</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>MISO</t>
+  </si>
+  <si>
+    <t>MOSI</t>
+  </si>
+  <si>
+    <t>SCK</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>P4_02</t>
+  </si>
+  <si>
+    <t>P4_01</t>
+  </si>
+  <si>
+    <t>P4_00</t>
+  </si>
+  <si>
+    <t>HLFB IRQ</t>
+  </si>
+  <si>
+    <t>M21</t>
+  </si>
+  <si>
+    <t>M22</t>
+  </si>
+  <si>
+    <t>P2_13</t>
+  </si>
+  <si>
+    <t>P2_12</t>
+  </si>
+  <si>
+    <t>P0_00</t>
+  </si>
+  <si>
+    <t>P0_01</t>
+  </si>
+  <si>
+    <t>IRQ07</t>
+  </si>
+  <si>
+    <t>P2_10</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>Analog I/O</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>Ain</t>
+  </si>
+  <si>
+    <t>Aout</t>
+  </si>
+  <si>
+    <t>Ai2</t>
+  </si>
+  <si>
+    <t>Ao1</t>
+  </si>
+  <si>
+    <t>P0_02</t>
+  </si>
+  <si>
+    <t>P0_14</t>
+  </si>
+  <si>
+    <t>AN07</t>
+  </si>
+  <si>
+    <t>P0_15</t>
+  </si>
+  <si>
+    <t>P0_03</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>P5_00</t>
+  </si>
+  <si>
+    <t>AN16</t>
+  </si>
+  <si>
+    <t>P5_01</t>
+  </si>
+  <si>
+    <t>ADC0</t>
+  </si>
+  <si>
+    <t>DAC0</t>
+  </si>
+  <si>
+    <t>Digital IO</t>
+  </si>
+  <si>
+    <t>I/O</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -3271,7 +3397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -3356,6 +3482,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3367,6 +3496,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3827,7 +3957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9478DC9D-482E-4825-8833-7BA9E60F25F7}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -3901,18 +4031,18 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="31" t="s">
         <v>942</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30" t="s">
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31" t="s">
         <v>941</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
       <c r="K9" t="s">
         <v>943</v>
       </c>
@@ -4307,10 +4437,10 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B29" s="9"/>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="31" t="s">
         <v>993</v>
       </c>
-      <c r="D29" s="30"/>
+      <c r="D29" s="31"/>
       <c r="F29" s="9" t="s">
         <v>943</v>
       </c>
@@ -4540,6 +4670,681 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F43284-28EE-4DDD-B95C-3937261F2297}">
+  <dimension ref="A1:L55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.265625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="8.265625" customWidth="1"/>
+    <col min="7" max="9" width="9.06640625" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
+        <v>994</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30">
+        <v>24</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="30">
+        <v>2</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30">
+        <v>21</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="30">
+        <v>3</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30">
+        <v>52</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="30">
+        <v>4</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30">
+        <v>31</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C9" s="31" t="s">
+        <v>942</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31" t="s">
+        <v>941</v>
+      </c>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="30"/>
+      <c r="L9" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="30" t="s">
+        <v>934</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>935</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>936</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>937</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>938</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>935</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>936</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>937</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>938</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>1053</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="30" t="s">
+        <v>965</v>
+      </c>
+      <c r="B11" s="30">
+        <v>1</v>
+      </c>
+      <c r="C11" s="30">
+        <v>16</v>
+      </c>
+      <c r="D11" s="30">
+        <v>15</v>
+      </c>
+      <c r="E11" s="30">
+        <v>14</v>
+      </c>
+      <c r="F11" s="30">
+        <v>13</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>1041</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="30" t="s">
+        <v>966</v>
+      </c>
+      <c r="B12" s="30">
+        <v>1</v>
+      </c>
+      <c r="C12" s="30">
+        <v>12</v>
+      </c>
+      <c r="D12" s="30">
+        <v>3</v>
+      </c>
+      <c r="E12" s="30">
+        <v>4</v>
+      </c>
+      <c r="F12" s="30">
+        <v>1</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>1051</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>1028</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B19" s="30"/>
+      <c r="C19" s="31" t="s">
+        <v>993</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="F19" s="30" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="30" t="s">
+        <v>991</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="30">
+        <v>1</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>975</v>
+      </c>
+      <c r="C21" s="30">
+        <v>10</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="30">
+        <v>2</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>976</v>
+      </c>
+      <c r="C22" s="30">
+        <v>9</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="30">
+        <v>3</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C23" s="30">
+        <v>64</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="30">
+        <v>4</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C24" s="30">
+        <v>63</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="30">
+        <v>5</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>992</v>
+      </c>
+      <c r="C25" s="30">
+        <v>27</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E25" t="s">
+        <v>415</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>851</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="36" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B30" s="31" t="s">
+        <v>942</v>
+      </c>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31" t="s">
+        <v>941</v>
+      </c>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="30" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>1049</v>
+      </c>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="30" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B32" s="30">
+        <v>48</v>
+      </c>
+      <c r="C32" s="30">
+        <v>47</v>
+      </c>
+      <c r="D32" s="30">
+        <v>46</v>
+      </c>
+      <c r="E32" s="30">
+        <v>45</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="30" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B40" s="30"/>
+      <c r="C40" s="31" t="s">
+        <v>993</v>
+      </c>
+      <c r="D40" s="31"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="30" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="30" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C42" s="30">
+        <v>49</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="30" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C43" s="30">
+        <v>61</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="30" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C44" s="30">
+        <v>27</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" s="30" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" s="30" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="30" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C49">
+        <v>23</v>
+      </c>
+      <c r="D49" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="30" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C50">
+        <v>30</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="30" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C51">
+        <v>41</v>
+      </c>
+      <c r="D51" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="30" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C52">
+        <v>42</v>
+      </c>
+      <c r="D52" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="30" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B53" t="s">
+        <v>704</v>
+      </c>
+      <c r="C53">
+        <v>53</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="30" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B54" t="s">
+        <v>660</v>
+      </c>
+      <c r="C54">
+        <v>50</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="30" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C55">
+        <v>62</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="C19:D19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD9ED81-804C-4EFA-84D0-1A12C997A3D1}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -17918,7 +18723,7 @@
       <c r="G236" s="20"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:AD184">
+  <sortState ref="A5:AD184">
     <sortCondition ref="A5:A184"/>
     <sortCondition ref="D5:D184"/>
   </sortState>
@@ -17927,7 +18732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C29D909-1233-40FF-AAE2-56D494CF763E}">
   <dimension ref="A3:AA192"/>
   <sheetViews>
@@ -17947,11 +18752,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
       <c r="E3" t="s">
         <v>115</v>
       </c>
@@ -17961,28 +18766,28 @@
       <c r="G3" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30" t="s">
+      <c r="I3" s="31"/>
+      <c r="J3" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30" t="s">
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
       <c r="X3" t="s">
         <v>121</v>
       </c>
@@ -18071,7 +18876,7 @@
       <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="31" t="s">
         <v>107</v>
       </c>
     </row>
@@ -18079,13 +18884,13 @@
       <c r="C6" s="9">
         <v>2</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C7" s="9">
         <v>3</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="31" t="s">
         <v>794</v>
       </c>
     </row>
@@ -18093,13 +18898,13 @@
       <c r="C8" s="9">
         <v>4</v>
       </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="31"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C9" s="9">
         <v>5</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="31" t="s">
         <v>795</v>
       </c>
     </row>
@@ -18107,13 +18912,13 @@
       <c r="C10" s="9">
         <v>6</v>
       </c>
-      <c r="D10" s="30"/>
+      <c r="D10" s="31"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C11" s="9">
         <v>7</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="31" t="s">
         <v>796</v>
       </c>
     </row>
@@ -18121,13 +18926,13 @@
       <c r="C12" s="9">
         <v>8</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="31"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C13" s="9">
         <v>9</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="33" t="s">
         <v>797</v>
       </c>
     </row>
@@ -18135,7 +18940,7 @@
       <c r="C14" s="9">
         <v>10</v>
       </c>
-      <c r="D14" s="30"/>
+      <c r="D14" s="31"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="N15" t="s">
@@ -18401,7 +19206,7 @@
       <c r="A19" s="9">
         <v>4</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="32" t="s">
         <v>768</v>
       </c>
       <c r="E19" t="s">
@@ -18478,7 +19283,7 @@
       <c r="A20" s="9">
         <v>5</v>
       </c>
-      <c r="D20" s="31"/>
+      <c r="D20" s="32"/>
       <c r="E20" t="s">
         <v>149</v>
       </c>
@@ -18553,7 +19358,7 @@
       <c r="A21" s="9">
         <v>6</v>
       </c>
-      <c r="D21" s="31"/>
+      <c r="D21" s="32"/>
       <c r="E21" t="s">
         <v>149</v>
       </c>
@@ -18628,7 +19433,7 @@
       <c r="A22" s="9">
         <v>7</v>
       </c>
-      <c r="D22" s="31"/>
+      <c r="D22" s="32"/>
       <c r="E22" t="s">
         <v>149</v>
       </c>
@@ -18703,7 +19508,7 @@
       <c r="A23" s="9">
         <v>8</v>
       </c>
-      <c r="D23" s="31"/>
+      <c r="D23" s="32"/>
       <c r="E23" t="s">
         <v>149</v>
       </c>
@@ -18778,7 +19583,7 @@
       <c r="A24" s="9">
         <v>9</v>
       </c>
-      <c r="D24" s="31"/>
+      <c r="D24" s="32"/>
       <c r="E24" t="s">
         <v>149</v>
       </c>
@@ -18853,7 +19658,7 @@
       <c r="A25" s="9">
         <v>10</v>
       </c>
-      <c r="D25" s="31"/>
+      <c r="D25" s="32"/>
       <c r="E25" t="s">
         <v>149</v>
       </c>
@@ -18928,7 +19733,7 @@
       <c r="A26" s="9">
         <v>11</v>
       </c>
-      <c r="D26" s="31"/>
+      <c r="D26" s="32"/>
       <c r="E26" t="s">
         <v>149</v>
       </c>
@@ -19003,7 +19808,7 @@
       <c r="A27" s="9">
         <v>12</v>
       </c>
-      <c r="D27" s="31"/>
+      <c r="D27" s="32"/>
       <c r="E27" t="s">
         <v>149</v>
       </c>
@@ -19078,7 +19883,7 @@
       <c r="A28" s="9">
         <v>13</v>
       </c>
-      <c r="D28" s="31"/>
+      <c r="D28" s="32"/>
       <c r="E28" t="s">
         <v>149</v>
       </c>
@@ -19535,7 +20340,7 @@
       <c r="A34" s="9">
         <v>19</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="32" t="s">
         <v>770</v>
       </c>
       <c r="E34" t="s">
@@ -19612,7 +20417,7 @@
       <c r="A35" s="9">
         <v>20</v>
       </c>
-      <c r="D35" s="31"/>
+      <c r="D35" s="32"/>
       <c r="E35" t="s">
         <v>230</v>
       </c>
@@ -19687,7 +20492,7 @@
       <c r="A36" s="9">
         <v>21</v>
       </c>
-      <c r="D36" s="31"/>
+      <c r="D36" s="32"/>
       <c r="E36" t="s">
         <v>231</v>
       </c>
@@ -19762,7 +20567,7 @@
       <c r="A37" s="9">
         <v>22</v>
       </c>
-      <c r="D37" s="31"/>
+      <c r="D37" s="32"/>
       <c r="E37" t="s">
         <v>232</v>
       </c>
@@ -19837,7 +20642,7 @@
       <c r="A38" s="9">
         <v>23</v>
       </c>
-      <c r="D38" s="31"/>
+      <c r="D38" s="32"/>
       <c r="E38" t="s">
         <v>233</v>
       </c>
@@ -19912,7 +20717,7 @@
       <c r="A39" s="9">
         <v>24</v>
       </c>
-      <c r="D39" s="31"/>
+      <c r="D39" s="32"/>
       <c r="E39" t="s">
         <v>238</v>
       </c>
@@ -19987,7 +20792,7 @@
       <c r="A40" s="9">
         <v>25</v>
       </c>
-      <c r="D40" s="31"/>
+      <c r="D40" s="32"/>
       <c r="E40" t="s">
         <v>244</v>
       </c>
@@ -20062,7 +20867,7 @@
       <c r="A41" s="9">
         <v>26</v>
       </c>
-      <c r="D41" s="31"/>
+      <c r="D41" s="32"/>
       <c r="E41" t="s">
         <v>245</v>
       </c>
@@ -20137,7 +20942,7 @@
       <c r="A42" s="9">
         <v>27</v>
       </c>
-      <c r="D42" s="31"/>
+      <c r="D42" s="32"/>
       <c r="E42" t="s">
         <v>246</v>
       </c>
@@ -20212,7 +21017,7 @@
       <c r="A43" s="9">
         <v>28</v>
       </c>
-      <c r="D43" s="31"/>
+      <c r="D43" s="32"/>
       <c r="E43" t="s">
         <v>247</v>
       </c>
@@ -20287,7 +21092,7 @@
       <c r="A44" s="9">
         <v>29</v>
       </c>
-      <c r="D44" s="31"/>
+      <c r="D44" s="32"/>
       <c r="E44" t="s">
         <v>248</v>
       </c>
@@ -20362,7 +21167,7 @@
       <c r="A45" s="9">
         <v>30</v>
       </c>
-      <c r="D45" s="31"/>
+      <c r="D45" s="32"/>
       <c r="E45" t="s">
         <v>249</v>
       </c>
@@ -20437,7 +21242,7 @@
       <c r="A46" s="9">
         <v>31</v>
       </c>
-      <c r="D46" s="31" t="s">
+      <c r="D46" s="32" t="s">
         <v>771</v>
       </c>
       <c r="E46" t="s">
@@ -20514,7 +21319,7 @@
       <c r="A47" s="9">
         <v>32</v>
       </c>
-      <c r="D47" s="31"/>
+      <c r="D47" s="32"/>
       <c r="E47" t="s">
         <v>149</v>
       </c>
@@ -20589,7 +21394,7 @@
       <c r="A48" s="9">
         <v>33</v>
       </c>
-      <c r="D48" s="31" t="s">
+      <c r="D48" s="32" t="s">
         <v>774</v>
       </c>
       <c r="E48" t="s">
@@ -20666,7 +21471,7 @@
       <c r="A49" s="9">
         <v>34</v>
       </c>
-      <c r="D49" s="31"/>
+      <c r="D49" s="32"/>
       <c r="E49" t="s">
         <v>251</v>
       </c>
@@ -20741,7 +21546,7 @@
       <c r="A50" s="9">
         <v>35</v>
       </c>
-      <c r="D50" s="31"/>
+      <c r="D50" s="32"/>
       <c r="E50" t="s">
         <v>232</v>
       </c>
@@ -21613,7 +22418,7 @@
       <c r="C61" s="9">
         <v>2</v>
       </c>
-      <c r="D61" s="31" t="s">
+      <c r="D61" s="32" t="s">
         <v>783</v>
       </c>
       <c r="F61" t="s">
@@ -21690,7 +22495,7 @@
       <c r="C62" s="9">
         <v>3</v>
       </c>
-      <c r="D62" s="31"/>
+      <c r="D62" s="32"/>
       <c r="F62" t="s">
         <v>149</v>
       </c>
@@ -22713,7 +23518,7 @@
       <c r="A75" s="9">
         <v>60</v>
       </c>
-      <c r="D75" s="31" t="s">
+      <c r="D75" s="32" t="s">
         <v>774</v>
       </c>
       <c r="E75" t="s">
@@ -22790,7 +23595,7 @@
       <c r="A76" s="9">
         <v>61</v>
       </c>
-      <c r="D76" s="31"/>
+      <c r="D76" s="32"/>
       <c r="E76" t="s">
         <v>409</v>
       </c>
@@ -22865,7 +23670,7 @@
       <c r="A77" s="9">
         <v>62</v>
       </c>
-      <c r="D77" s="31"/>
+      <c r="D77" s="32"/>
       <c r="E77" t="s">
         <v>410</v>
       </c>
@@ -22940,7 +23745,7 @@
       <c r="A78" s="9">
         <v>63</v>
       </c>
-      <c r="D78" s="31"/>
+      <c r="D78" s="32"/>
       <c r="E78" t="s">
         <v>232</v>
       </c>
@@ -23015,7 +23820,7 @@
       <c r="A79" s="9">
         <v>64</v>
       </c>
-      <c r="D79" s="31"/>
+      <c r="D79" s="32"/>
       <c r="E79" t="s">
         <v>411</v>
       </c>
@@ -23090,7 +23895,7 @@
       <c r="A80" s="9">
         <v>65</v>
       </c>
-      <c r="D80" s="31"/>
+      <c r="D80" s="32"/>
       <c r="E80" t="s">
         <v>411</v>
       </c>
@@ -23165,7 +23970,7 @@
       <c r="A81" s="9">
         <v>66</v>
       </c>
-      <c r="D81" s="31"/>
+      <c r="D81" s="32"/>
       <c r="E81" t="s">
         <v>412</v>
       </c>
@@ -23243,7 +24048,7 @@
       <c r="C82" s="9">
         <v>9</v>
       </c>
-      <c r="D82" s="31"/>
+      <c r="D82" s="32"/>
       <c r="E82" t="s">
         <v>413</v>
       </c>
@@ -23318,7 +24123,7 @@
       <c r="C83" s="9">
         <v>1</v>
       </c>
-      <c r="D83" s="31" t="s">
+      <c r="D83" s="32" t="s">
         <v>792</v>
       </c>
       <c r="E83" t="s">
@@ -23398,7 +24203,7 @@
       <c r="C84" s="9">
         <v>3</v>
       </c>
-      <c r="D84" s="31"/>
+      <c r="D84" s="32"/>
       <c r="E84" t="s">
         <v>149</v>
       </c>
@@ -23476,7 +24281,7 @@
       <c r="C85" s="9">
         <v>5</v>
       </c>
-      <c r="D85" s="31"/>
+      <c r="D85" s="32"/>
       <c r="E85" t="s">
         <v>149</v>
       </c>
@@ -23554,7 +24359,7 @@
       <c r="C86" s="9">
         <v>7</v>
       </c>
-      <c r="D86" s="31"/>
+      <c r="D86" s="32"/>
       <c r="E86" t="s">
         <v>149</v>
       </c>
@@ -23632,7 +24437,7 @@
       <c r="C87" s="9">
         <v>9</v>
       </c>
-      <c r="D87" s="31"/>
+      <c r="D87" s="32"/>
       <c r="E87" t="s">
         <v>149</v>
       </c>
@@ -24480,7 +25285,7 @@
       <c r="A98" s="9">
         <v>83</v>
       </c>
-      <c r="D98" s="31" t="s">
+      <c r="D98" s="32" t="s">
         <v>806</v>
       </c>
       <c r="E98" t="s">
@@ -24557,7 +25362,7 @@
       <c r="A99" s="9">
         <v>84</v>
       </c>
-      <c r="D99" s="31"/>
+      <c r="D99" s="32"/>
       <c r="E99" t="s">
         <v>409</v>
       </c>
@@ -24872,7 +25677,7 @@
       <c r="C103" s="9">
         <v>7</v>
       </c>
-      <c r="D103" s="31" t="s">
+      <c r="D103" s="32" t="s">
         <v>805</v>
       </c>
       <c r="E103" t="s">
@@ -24952,7 +25757,7 @@
       <c r="C104" s="9">
         <v>5</v>
       </c>
-      <c r="D104" s="31"/>
+      <c r="D104" s="32"/>
       <c r="E104" t="s">
         <v>479</v>
       </c>
@@ -25030,7 +25835,7 @@
       <c r="C105" s="9">
         <v>3</v>
       </c>
-      <c r="D105" s="31"/>
+      <c r="D105" s="32"/>
       <c r="E105" t="s">
         <v>483</v>
       </c>
@@ -25108,7 +25913,7 @@
       <c r="C106" s="9">
         <v>1</v>
       </c>
-      <c r="D106" s="31"/>
+      <c r="D106" s="32"/>
       <c r="E106" t="s">
         <v>82</v>
       </c>
@@ -25556,7 +26361,7 @@
       <c r="A112" s="9">
         <v>97</v>
       </c>
-      <c r="D112" s="31" t="s">
+      <c r="D112" s="32" t="s">
         <v>807</v>
       </c>
       <c r="E112" t="s">
@@ -25630,7 +26435,7 @@
       <c r="A113" s="9">
         <v>98</v>
       </c>
-      <c r="D113" s="31"/>
+      <c r="D113" s="32"/>
       <c r="E113" t="s">
         <v>232</v>
       </c>
@@ -26546,7 +27351,7 @@
       <c r="A125" s="9">
         <v>110</v>
       </c>
-      <c r="D125" s="31" t="s">
+      <c r="D125" s="32" t="s">
         <v>807</v>
       </c>
       <c r="E125" t="s">
@@ -26623,7 +27428,7 @@
       <c r="A126" s="9">
         <v>111</v>
       </c>
-      <c r="D126" s="31"/>
+      <c r="D126" s="32"/>
       <c r="E126" t="s">
         <v>232</v>
       </c>
@@ -26698,7 +27503,7 @@
       <c r="A127" s="9">
         <v>112</v>
       </c>
-      <c r="D127" s="31"/>
+      <c r="D127" s="32"/>
       <c r="E127" t="s">
         <v>549</v>
       </c>
@@ -27519,7 +28324,7 @@
       <c r="A138" s="9">
         <v>123</v>
       </c>
-      <c r="D138" s="31" t="s">
+      <c r="D138" s="32" t="s">
         <v>807</v>
       </c>
       <c r="E138" t="s">
@@ -27596,7 +28401,7 @@
       <c r="A139" s="9">
         <v>124</v>
       </c>
-      <c r="D139" s="31"/>
+      <c r="D139" s="32"/>
       <c r="E139" t="s">
         <v>232</v>
       </c>
@@ -29445,7 +30250,7 @@
       <c r="A163" s="9">
         <v>148</v>
       </c>
-      <c r="D163" s="31" t="s">
+      <c r="D163" s="32" t="s">
         <v>807</v>
       </c>
       <c r="E163" t="s">
@@ -29522,7 +30327,7 @@
       <c r="A164" s="9">
         <v>149</v>
       </c>
-      <c r="D164" s="31"/>
+      <c r="D164" s="32"/>
       <c r="E164" t="s">
         <v>244</v>
       </c>
@@ -29597,7 +30402,7 @@
       <c r="A165" s="9">
         <v>150</v>
       </c>
-      <c r="D165" s="31"/>
+      <c r="D165" s="32"/>
       <c r="E165" t="s">
         <v>232</v>
       </c>
@@ -29826,7 +30631,7 @@
       <c r="A168" s="9">
         <v>153</v>
       </c>
-      <c r="D168" s="31" t="s">
+      <c r="D168" s="32" t="s">
         <v>807</v>
       </c>
       <c r="E168" t="s">
@@ -29903,7 +30708,7 @@
       <c r="A169" s="9">
         <v>154</v>
       </c>
-      <c r="D169" s="31"/>
+      <c r="D169" s="32"/>
       <c r="E169" t="s">
         <v>712</v>
       </c>
@@ -29978,7 +30783,7 @@
       <c r="A170" s="9">
         <v>155</v>
       </c>
-      <c r="D170" s="31"/>
+      <c r="D170" s="32"/>
       <c r="E170" t="s">
         <v>713</v>
       </c>
@@ -30053,7 +30858,7 @@
       <c r="A171" s="9">
         <v>156</v>
       </c>
-      <c r="D171" s="31"/>
+      <c r="D171" s="32"/>
       <c r="E171" t="s">
         <v>714</v>
       </c>
@@ -30128,7 +30933,7 @@
       <c r="A172" s="9">
         <v>157</v>
       </c>
-      <c r="D172" s="31"/>
+      <c r="D172" s="32"/>
       <c r="E172" t="s">
         <v>715</v>
       </c>
@@ -30203,7 +31008,7 @@
       <c r="A173" s="9">
         <v>158</v>
       </c>
-      <c r="D173" s="31"/>
+      <c r="D173" s="32"/>
       <c r="E173" t="s">
         <v>716</v>
       </c>
@@ -31125,7 +31930,7 @@
       <c r="A185" s="9">
         <v>170</v>
       </c>
-      <c r="D185" s="31" t="s">
+      <c r="D185" s="32" t="s">
         <v>807</v>
       </c>
       <c r="E185" t="s">
@@ -31202,7 +32007,7 @@
       <c r="A186" s="9">
         <v>171</v>
       </c>
-      <c r="D186" s="31"/>
+      <c r="D186" s="32"/>
       <c r="E186" t="s">
         <v>244</v>
       </c>
@@ -31665,14 +32470,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D163:D165"/>
-    <mergeCell ref="D168:D173"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D125:D127"/>
-    <mergeCell ref="D138:D139"/>
     <mergeCell ref="D83:D87"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="H3:I3"/>
@@ -31689,12 +32486,20 @@
     <mergeCell ref="D48:D50"/>
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="D75:D82"/>
+    <mergeCell ref="D163:D165"/>
+    <mergeCell ref="D168:D173"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D125:D127"/>
+    <mergeCell ref="D138:D139"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:E17"/>
   <sheetViews>
@@ -31708,14 +32513,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
@@ -31952,7 +32757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
@@ -31976,18 +32781,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
@@ -32119,7 +32924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -32134,18 +32939,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
@@ -32264,7 +33069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CD0BF2-DE55-4F66-BEBD-0EBA0E40EC64}">
   <dimension ref="A10:B22"/>
   <sheetViews>

--- a/S7G2_Titan/2023_Sep_25_MD_Controller_IO_Map_32_bit_S7G2_Titan_6L.xlsx
+++ b/S7G2_Titan/2023_Sep_25_MD_Controller_IO_Map_32_bit_S7G2_Titan_6L.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\32-bit-controller\S7G2_Titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F21C32-54CC-465C-839F-7A60A2539EEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED44FF1-E870-40DE-AF53-DE41459ECE70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16643" yWindow="2003" windowWidth="11783" windowHeight="11513" tabRatio="516" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16643" yWindow="2603" windowWidth="11783" windowHeight="11513" tabRatio="516" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S7G2_6L_IO" sheetId="16" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7660" uniqueCount="1084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7654" uniqueCount="1082">
   <si>
     <t>A</t>
   </si>
@@ -3207,12 +3207,6 @@
   </si>
   <si>
     <t>M22</t>
-  </si>
-  <si>
-    <t>P2_13</t>
-  </si>
-  <si>
-    <t>P2_12</t>
   </si>
   <si>
     <t>P0_00</t>
@@ -3481,6 +3475,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3496,7 +3491,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4031,18 +4025,18 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="32" t="s">
         <v>942</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31" t="s">
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32" t="s">
         <v>941</v>
       </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
       <c r="K9" t="s">
         <v>943</v>
       </c>
@@ -4437,10 +4431,10 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B29" s="9"/>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="32" t="s">
         <v>993</v>
       </c>
-      <c r="D29" s="31"/>
+      <c r="D29" s="32"/>
       <c r="F29" s="9" t="s">
         <v>943</v>
       </c>
@@ -4671,10 +4665,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F43284-28EE-4DDD-B95C-3937261F2297}">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4707,7 +4701,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -4747,18 +4741,18 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="32" t="s">
         <v>942</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31" t="s">
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32" t="s">
         <v>941</v>
       </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
       <c r="K9" s="30"/>
       <c r="L9" t="s">
         <v>943</v>
@@ -4880,10 +4874,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B19" s="30"/>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="32" t="s">
         <v>993</v>
       </c>
-      <c r="D19" s="31"/>
+      <c r="D19" s="32"/>
       <c r="F19" s="30" t="s">
         <v>943</v>
       </c>
@@ -4916,13 +4910,13 @@
         <v>975</v>
       </c>
       <c r="C21" s="30">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>1057</v>
+        <v>998</v>
       </c>
       <c r="E21" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>1009</v>
@@ -4936,13 +4930,13 @@
         <v>976</v>
       </c>
       <c r="C22" s="30">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>1056</v>
+        <v>1071</v>
       </c>
       <c r="E22" t="s">
-        <v>1032</v>
+        <v>704</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>1010</v>
@@ -4959,7 +4953,7 @@
         <v>64</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E23" t="s">
         <v>1033</v>
@@ -4982,10 +4976,10 @@
         <v>63</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E24" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>1012</v>
@@ -5018,35 +5012,35 @@
       <c r="L25"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="31" t="s">
         <v>1043</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="32" t="s">
         <v>942</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31" t="s">
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32" t="s">
         <v>941</v>
       </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="30" t="s">
@@ -5124,19 +5118,19 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="30" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B40" s="30"/>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="32" t="s">
         <v>993</v>
       </c>
-      <c r="D40" s="31"/>
+      <c r="D40" s="32"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="30" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B41" s="30" t="s">
         <v>10</v>
@@ -5156,72 +5150,72 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="30" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C42" s="30">
         <v>49</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F42" s="30" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="30" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B43" s="30" t="s">
         <v>1066</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>1068</v>
       </c>
       <c r="C43" s="30">
         <v>61</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F43" s="30" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="30" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B44" s="30" t="s">
         <v>1067</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>1069</v>
       </c>
       <c r="C44" s="30">
         <v>27</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="F44" s="30" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="30" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="30" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B48" t="s">
         <v>1027</v>
@@ -5235,100 +5229,72 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="30" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B49" t="s">
-        <v>1029</v>
+        <v>1081</v>
       </c>
       <c r="C49">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>998</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="30" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B50" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C50">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>1006</v>
+        <v>954</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="30" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B51" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C51">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D51" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="30" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B52" t="s">
-        <v>1083</v>
+        <v>660</v>
       </c>
       <c r="C52">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D52" t="s">
-        <v>953</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="30" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B53" t="s">
-        <v>704</v>
+        <v>1035</v>
       </c>
       <c r="C53">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D53" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="30" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B54" t="s">
-        <v>660</v>
-      </c>
-      <c r="C54">
-        <v>50</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="30" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C55">
-        <v>62</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
   </sheetData>
@@ -18752,11 +18718,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
       <c r="E3" t="s">
         <v>115</v>
       </c>
@@ -18766,28 +18732,28 @@
       <c r="G3" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31" t="s">
+      <c r="I3" s="32"/>
+      <c r="J3" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31" t="s">
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
       <c r="X3" t="s">
         <v>121</v>
       </c>
@@ -18876,7 +18842,7 @@
       <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="32" t="s">
         <v>107</v>
       </c>
     </row>
@@ -18884,13 +18850,13 @@
       <c r="C6" s="9">
         <v>2</v>
       </c>
-      <c r="D6" s="31"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C7" s="9">
         <v>3</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="32" t="s">
         <v>794</v>
       </c>
     </row>
@@ -18898,13 +18864,13 @@
       <c r="C8" s="9">
         <v>4</v>
       </c>
-      <c r="D8" s="31"/>
+      <c r="D8" s="32"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C9" s="9">
         <v>5</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="32" t="s">
         <v>795</v>
       </c>
     </row>
@@ -18912,13 +18878,13 @@
       <c r="C10" s="9">
         <v>6</v>
       </c>
-      <c r="D10" s="31"/>
+      <c r="D10" s="32"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C11" s="9">
         <v>7</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="32" t="s">
         <v>796</v>
       </c>
     </row>
@@ -18926,13 +18892,13 @@
       <c r="C12" s="9">
         <v>8</v>
       </c>
-      <c r="D12" s="31"/>
+      <c r="D12" s="32"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C13" s="9">
         <v>9</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="34" t="s">
         <v>797</v>
       </c>
     </row>
@@ -18940,7 +18906,7 @@
       <c r="C14" s="9">
         <v>10</v>
       </c>
-      <c r="D14" s="31"/>
+      <c r="D14" s="32"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="N15" t="s">
@@ -19206,7 +19172,7 @@
       <c r="A19" s="9">
         <v>4</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="33" t="s">
         <v>768</v>
       </c>
       <c r="E19" t="s">
@@ -19283,7 +19249,7 @@
       <c r="A20" s="9">
         <v>5</v>
       </c>
-      <c r="D20" s="32"/>
+      <c r="D20" s="33"/>
       <c r="E20" t="s">
         <v>149</v>
       </c>
@@ -19358,7 +19324,7 @@
       <c r="A21" s="9">
         <v>6</v>
       </c>
-      <c r="D21" s="32"/>
+      <c r="D21" s="33"/>
       <c r="E21" t="s">
         <v>149</v>
       </c>
@@ -19433,7 +19399,7 @@
       <c r="A22" s="9">
         <v>7</v>
       </c>
-      <c r="D22" s="32"/>
+      <c r="D22" s="33"/>
       <c r="E22" t="s">
         <v>149</v>
       </c>
@@ -19508,7 +19474,7 @@
       <c r="A23" s="9">
         <v>8</v>
       </c>
-      <c r="D23" s="32"/>
+      <c r="D23" s="33"/>
       <c r="E23" t="s">
         <v>149</v>
       </c>
@@ -19583,7 +19549,7 @@
       <c r="A24" s="9">
         <v>9</v>
       </c>
-      <c r="D24" s="32"/>
+      <c r="D24" s="33"/>
       <c r="E24" t="s">
         <v>149</v>
       </c>
@@ -19658,7 +19624,7 @@
       <c r="A25" s="9">
         <v>10</v>
       </c>
-      <c r="D25" s="32"/>
+      <c r="D25" s="33"/>
       <c r="E25" t="s">
         <v>149</v>
       </c>
@@ -19733,7 +19699,7 @@
       <c r="A26" s="9">
         <v>11</v>
       </c>
-      <c r="D26" s="32"/>
+      <c r="D26" s="33"/>
       <c r="E26" t="s">
         <v>149</v>
       </c>
@@ -19808,7 +19774,7 @@
       <c r="A27" s="9">
         <v>12</v>
       </c>
-      <c r="D27" s="32"/>
+      <c r="D27" s="33"/>
       <c r="E27" t="s">
         <v>149</v>
       </c>
@@ -19883,7 +19849,7 @@
       <c r="A28" s="9">
         <v>13</v>
       </c>
-      <c r="D28" s="32"/>
+      <c r="D28" s="33"/>
       <c r="E28" t="s">
         <v>149</v>
       </c>
@@ -20340,7 +20306,7 @@
       <c r="A34" s="9">
         <v>19</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="33" t="s">
         <v>770</v>
       </c>
       <c r="E34" t="s">
@@ -20417,7 +20383,7 @@
       <c r="A35" s="9">
         <v>20</v>
       </c>
-      <c r="D35" s="32"/>
+      <c r="D35" s="33"/>
       <c r="E35" t="s">
         <v>230</v>
       </c>
@@ -20492,7 +20458,7 @@
       <c r="A36" s="9">
         <v>21</v>
       </c>
-      <c r="D36" s="32"/>
+      <c r="D36" s="33"/>
       <c r="E36" t="s">
         <v>231</v>
       </c>
@@ -20567,7 +20533,7 @@
       <c r="A37" s="9">
         <v>22</v>
       </c>
-      <c r="D37" s="32"/>
+      <c r="D37" s="33"/>
       <c r="E37" t="s">
         <v>232</v>
       </c>
@@ -20642,7 +20608,7 @@
       <c r="A38" s="9">
         <v>23</v>
       </c>
-      <c r="D38" s="32"/>
+      <c r="D38" s="33"/>
       <c r="E38" t="s">
         <v>233</v>
       </c>
@@ -20717,7 +20683,7 @@
       <c r="A39" s="9">
         <v>24</v>
       </c>
-      <c r="D39" s="32"/>
+      <c r="D39" s="33"/>
       <c r="E39" t="s">
         <v>238</v>
       </c>
@@ -20792,7 +20758,7 @@
       <c r="A40" s="9">
         <v>25</v>
       </c>
-      <c r="D40" s="32"/>
+      <c r="D40" s="33"/>
       <c r="E40" t="s">
         <v>244</v>
       </c>
@@ -20867,7 +20833,7 @@
       <c r="A41" s="9">
         <v>26</v>
       </c>
-      <c r="D41" s="32"/>
+      <c r="D41" s="33"/>
       <c r="E41" t="s">
         <v>245</v>
       </c>
@@ -20942,7 +20908,7 @@
       <c r="A42" s="9">
         <v>27</v>
       </c>
-      <c r="D42" s="32"/>
+      <c r="D42" s="33"/>
       <c r="E42" t="s">
         <v>246</v>
       </c>
@@ -21017,7 +20983,7 @@
       <c r="A43" s="9">
         <v>28</v>
       </c>
-      <c r="D43" s="32"/>
+      <c r="D43" s="33"/>
       <c r="E43" t="s">
         <v>247</v>
       </c>
@@ -21092,7 +21058,7 @@
       <c r="A44" s="9">
         <v>29</v>
       </c>
-      <c r="D44" s="32"/>
+      <c r="D44" s="33"/>
       <c r="E44" t="s">
         <v>248</v>
       </c>
@@ -21167,7 +21133,7 @@
       <c r="A45" s="9">
         <v>30</v>
       </c>
-      <c r="D45" s="32"/>
+      <c r="D45" s="33"/>
       <c r="E45" t="s">
         <v>249</v>
       </c>
@@ -21242,7 +21208,7 @@
       <c r="A46" s="9">
         <v>31</v>
       </c>
-      <c r="D46" s="32" t="s">
+      <c r="D46" s="33" t="s">
         <v>771</v>
       </c>
       <c r="E46" t="s">
@@ -21319,7 +21285,7 @@
       <c r="A47" s="9">
         <v>32</v>
       </c>
-      <c r="D47" s="32"/>
+      <c r="D47" s="33"/>
       <c r="E47" t="s">
         <v>149</v>
       </c>
@@ -21394,7 +21360,7 @@
       <c r="A48" s="9">
         <v>33</v>
       </c>
-      <c r="D48" s="32" t="s">
+      <c r="D48" s="33" t="s">
         <v>774</v>
       </c>
       <c r="E48" t="s">
@@ -21471,7 +21437,7 @@
       <c r="A49" s="9">
         <v>34</v>
       </c>
-      <c r="D49" s="32"/>
+      <c r="D49" s="33"/>
       <c r="E49" t="s">
         <v>251</v>
       </c>
@@ -21546,7 +21512,7 @@
       <c r="A50" s="9">
         <v>35</v>
       </c>
-      <c r="D50" s="32"/>
+      <c r="D50" s="33"/>
       <c r="E50" t="s">
         <v>232</v>
       </c>
@@ -22418,7 +22384,7 @@
       <c r="C61" s="9">
         <v>2</v>
       </c>
-      <c r="D61" s="32" t="s">
+      <c r="D61" s="33" t="s">
         <v>783</v>
       </c>
       <c r="F61" t="s">
@@ -22495,7 +22461,7 @@
       <c r="C62" s="9">
         <v>3</v>
       </c>
-      <c r="D62" s="32"/>
+      <c r="D62" s="33"/>
       <c r="F62" t="s">
         <v>149</v>
       </c>
@@ -23518,7 +23484,7 @@
       <c r="A75" s="9">
         <v>60</v>
       </c>
-      <c r="D75" s="32" t="s">
+      <c r="D75" s="33" t="s">
         <v>774</v>
       </c>
       <c r="E75" t="s">
@@ -23595,7 +23561,7 @@
       <c r="A76" s="9">
         <v>61</v>
       </c>
-      <c r="D76" s="32"/>
+      <c r="D76" s="33"/>
       <c r="E76" t="s">
         <v>409</v>
       </c>
@@ -23670,7 +23636,7 @@
       <c r="A77" s="9">
         <v>62</v>
       </c>
-      <c r="D77" s="32"/>
+      <c r="D77" s="33"/>
       <c r="E77" t="s">
         <v>410</v>
       </c>
@@ -23745,7 +23711,7 @@
       <c r="A78" s="9">
         <v>63</v>
       </c>
-      <c r="D78" s="32"/>
+      <c r="D78" s="33"/>
       <c r="E78" t="s">
         <v>232</v>
       </c>
@@ -23820,7 +23786,7 @@
       <c r="A79" s="9">
         <v>64</v>
       </c>
-      <c r="D79" s="32"/>
+      <c r="D79" s="33"/>
       <c r="E79" t="s">
         <v>411</v>
       </c>
@@ -23895,7 +23861,7 @@
       <c r="A80" s="9">
         <v>65</v>
       </c>
-      <c r="D80" s="32"/>
+      <c r="D80" s="33"/>
       <c r="E80" t="s">
         <v>411</v>
       </c>
@@ -23970,7 +23936,7 @@
       <c r="A81" s="9">
         <v>66</v>
       </c>
-      <c r="D81" s="32"/>
+      <c r="D81" s="33"/>
       <c r="E81" t="s">
         <v>412</v>
       </c>
@@ -24048,7 +24014,7 @@
       <c r="C82" s="9">
         <v>9</v>
       </c>
-      <c r="D82" s="32"/>
+      <c r="D82" s="33"/>
       <c r="E82" t="s">
         <v>413</v>
       </c>
@@ -24123,7 +24089,7 @@
       <c r="C83" s="9">
         <v>1</v>
       </c>
-      <c r="D83" s="32" t="s">
+      <c r="D83" s="33" t="s">
         <v>792</v>
       </c>
       <c r="E83" t="s">
@@ -24203,7 +24169,7 @@
       <c r="C84" s="9">
         <v>3</v>
       </c>
-      <c r="D84" s="32"/>
+      <c r="D84" s="33"/>
       <c r="E84" t="s">
         <v>149</v>
       </c>
@@ -24281,7 +24247,7 @@
       <c r="C85" s="9">
         <v>5</v>
       </c>
-      <c r="D85" s="32"/>
+      <c r="D85" s="33"/>
       <c r="E85" t="s">
         <v>149</v>
       </c>
@@ -24359,7 +24325,7 @@
       <c r="C86" s="9">
         <v>7</v>
       </c>
-      <c r="D86" s="32"/>
+      <c r="D86" s="33"/>
       <c r="E86" t="s">
         <v>149</v>
       </c>
@@ -24437,7 +24403,7 @@
       <c r="C87" s="9">
         <v>9</v>
       </c>
-      <c r="D87" s="32"/>
+      <c r="D87" s="33"/>
       <c r="E87" t="s">
         <v>149</v>
       </c>
@@ -25285,7 +25251,7 @@
       <c r="A98" s="9">
         <v>83</v>
       </c>
-      <c r="D98" s="32" t="s">
+      <c r="D98" s="33" t="s">
         <v>806</v>
       </c>
       <c r="E98" t="s">
@@ -25362,7 +25328,7 @@
       <c r="A99" s="9">
         <v>84</v>
       </c>
-      <c r="D99" s="32"/>
+      <c r="D99" s="33"/>
       <c r="E99" t="s">
         <v>409</v>
       </c>
@@ -25677,7 +25643,7 @@
       <c r="C103" s="9">
         <v>7</v>
       </c>
-      <c r="D103" s="32" t="s">
+      <c r="D103" s="33" t="s">
         <v>805</v>
       </c>
       <c r="E103" t="s">
@@ -25757,7 +25723,7 @@
       <c r="C104" s="9">
         <v>5</v>
       </c>
-      <c r="D104" s="32"/>
+      <c r="D104" s="33"/>
       <c r="E104" t="s">
         <v>479</v>
       </c>
@@ -25835,7 +25801,7 @@
       <c r="C105" s="9">
         <v>3</v>
       </c>
-      <c r="D105" s="32"/>
+      <c r="D105" s="33"/>
       <c r="E105" t="s">
         <v>483</v>
       </c>
@@ -25913,7 +25879,7 @@
       <c r="C106" s="9">
         <v>1</v>
       </c>
-      <c r="D106" s="32"/>
+      <c r="D106" s="33"/>
       <c r="E106" t="s">
         <v>82</v>
       </c>
@@ -26361,7 +26327,7 @@
       <c r="A112" s="9">
         <v>97</v>
       </c>
-      <c r="D112" s="32" t="s">
+      <c r="D112" s="33" t="s">
         <v>807</v>
       </c>
       <c r="E112" t="s">
@@ -26435,7 +26401,7 @@
       <c r="A113" s="9">
         <v>98</v>
       </c>
-      <c r="D113" s="32"/>
+      <c r="D113" s="33"/>
       <c r="E113" t="s">
         <v>232</v>
       </c>
@@ -27351,7 +27317,7 @@
       <c r="A125" s="9">
         <v>110</v>
       </c>
-      <c r="D125" s="32" t="s">
+      <c r="D125" s="33" t="s">
         <v>807</v>
       </c>
       <c r="E125" t="s">
@@ -27428,7 +27394,7 @@
       <c r="A126" s="9">
         <v>111</v>
       </c>
-      <c r="D126" s="32"/>
+      <c r="D126" s="33"/>
       <c r="E126" t="s">
         <v>232</v>
       </c>
@@ -27503,7 +27469,7 @@
       <c r="A127" s="9">
         <v>112</v>
       </c>
-      <c r="D127" s="32"/>
+      <c r="D127" s="33"/>
       <c r="E127" t="s">
         <v>549</v>
       </c>
@@ -28324,7 +28290,7 @@
       <c r="A138" s="9">
         <v>123</v>
       </c>
-      <c r="D138" s="32" t="s">
+      <c r="D138" s="33" t="s">
         <v>807</v>
       </c>
       <c r="E138" t="s">
@@ -28401,7 +28367,7 @@
       <c r="A139" s="9">
         <v>124</v>
       </c>
-      <c r="D139" s="32"/>
+      <c r="D139" s="33"/>
       <c r="E139" t="s">
         <v>232</v>
       </c>
@@ -30250,7 +30216,7 @@
       <c r="A163" s="9">
         <v>148</v>
       </c>
-      <c r="D163" s="32" t="s">
+      <c r="D163" s="33" t="s">
         <v>807</v>
       </c>
       <c r="E163" t="s">
@@ -30327,7 +30293,7 @@
       <c r="A164" s="9">
         <v>149</v>
       </c>
-      <c r="D164" s="32"/>
+      <c r="D164" s="33"/>
       <c r="E164" t="s">
         <v>244</v>
       </c>
@@ -30402,7 +30368,7 @@
       <c r="A165" s="9">
         <v>150</v>
       </c>
-      <c r="D165" s="32"/>
+      <c r="D165" s="33"/>
       <c r="E165" t="s">
         <v>232</v>
       </c>
@@ -30631,7 +30597,7 @@
       <c r="A168" s="9">
         <v>153</v>
       </c>
-      <c r="D168" s="32" t="s">
+      <c r="D168" s="33" t="s">
         <v>807</v>
       </c>
       <c r="E168" t="s">
@@ -30708,7 +30674,7 @@
       <c r="A169" s="9">
         <v>154</v>
       </c>
-      <c r="D169" s="32"/>
+      <c r="D169" s="33"/>
       <c r="E169" t="s">
         <v>712</v>
       </c>
@@ -30783,7 +30749,7 @@
       <c r="A170" s="9">
         <v>155</v>
       </c>
-      <c r="D170" s="32"/>
+      <c r="D170" s="33"/>
       <c r="E170" t="s">
         <v>713</v>
       </c>
@@ -30858,7 +30824,7 @@
       <c r="A171" s="9">
         <v>156</v>
       </c>
-      <c r="D171" s="32"/>
+      <c r="D171" s="33"/>
       <c r="E171" t="s">
         <v>714</v>
       </c>
@@ -30933,7 +30899,7 @@
       <c r="A172" s="9">
         <v>157</v>
       </c>
-      <c r="D172" s="32"/>
+      <c r="D172" s="33"/>
       <c r="E172" t="s">
         <v>715</v>
       </c>
@@ -31008,7 +30974,7 @@
       <c r="A173" s="9">
         <v>158</v>
       </c>
-      <c r="D173" s="32"/>
+      <c r="D173" s="33"/>
       <c r="E173" t="s">
         <v>716</v>
       </c>
@@ -31930,7 +31896,7 @@
       <c r="A185" s="9">
         <v>170</v>
       </c>
-      <c r="D185" s="32" t="s">
+      <c r="D185" s="33" t="s">
         <v>807</v>
       </c>
       <c r="E185" t="s">
@@ -32007,7 +31973,7 @@
       <c r="A186" s="9">
         <v>171</v>
       </c>
-      <c r="D186" s="32"/>
+      <c r="D186" s="33"/>
       <c r="E186" t="s">
         <v>244</v>
       </c>
@@ -32470,6 +32436,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D163:D165"/>
+    <mergeCell ref="D168:D173"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D125:D127"/>
+    <mergeCell ref="D138:D139"/>
     <mergeCell ref="D83:D87"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="H3:I3"/>
@@ -32486,14 +32460,6 @@
     <mergeCell ref="D48:D50"/>
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="D75:D82"/>
-    <mergeCell ref="D163:D165"/>
-    <mergeCell ref="D168:D173"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D125:D127"/>
-    <mergeCell ref="D138:D139"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32513,14 +32479,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
@@ -32781,18 +32747,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
@@ -32939,18 +32905,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">

--- a/S7G2_Titan/2023_Sep_25_MD_Controller_IO_Map_32_bit_S7G2_Titan_6L.xlsx
+++ b/S7G2_Titan/2023_Sep_25_MD_Controller_IO_Map_32_bit_S7G2_Titan_6L.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\32-bit-controller\S7G2_Titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED44FF1-E870-40DE-AF53-DE41459ECE70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439D4916-09ED-4C43-9416-00F8445C2BDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16643" yWindow="2603" windowWidth="11783" windowHeight="11513" tabRatio="516" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16643" yWindow="3803" windowWidth="11783" windowHeight="11513" tabRatio="516" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S7G2_6L_IO" sheetId="16" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7654" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7667" uniqueCount="1096">
   <si>
     <t>A</t>
   </si>
@@ -3260,9 +3260,6 @@
     <t>P0_03</t>
   </si>
   <si>
-    <t>DA</t>
-  </si>
-  <si>
     <t>P5_00</t>
   </si>
   <si>
@@ -3285,6 +3282,51 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>LS_01</t>
+  </si>
+  <si>
+    <t>LS_02</t>
+  </si>
+  <si>
+    <t>LS_03</t>
+  </si>
+  <si>
+    <t>LS_04</t>
+  </si>
+  <si>
+    <t>DAC</t>
+  </si>
+  <si>
+    <t>Digital Feedback</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>DFO_01</t>
+  </si>
+  <si>
+    <t>DFO_02</t>
+  </si>
+  <si>
+    <t>DFO_03</t>
+  </si>
+  <si>
+    <t>DFI_01</t>
+  </si>
+  <si>
+    <t>DFI_02</t>
+  </si>
+  <si>
+    <t>A1M0</t>
+  </si>
+  <si>
+    <t>A1M1</t>
   </si>
 </sst>
 </file>
@@ -3391,7 +3433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -3476,6 +3518,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4025,18 +4070,18 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="33" t="s">
         <v>942</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32" t="s">
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33" t="s">
         <v>941</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
       <c r="K9" t="s">
         <v>943</v>
       </c>
@@ -4431,10 +4476,10 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B29" s="9"/>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="33" t="s">
         <v>993</v>
       </c>
-      <c r="D29" s="32"/>
+      <c r="D29" s="33"/>
       <c r="F29" s="9" t="s">
         <v>943</v>
       </c>
@@ -4667,8 +4712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F43284-28EE-4DDD-B95C-3937261F2297}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4691,6 +4736,9 @@
       <c r="D1" s="30" t="s">
         <v>11</v>
       </c>
+      <c r="E1" s="32" t="s">
+        <v>943</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="30">
@@ -4703,6 +4751,9 @@
       <c r="D2" s="30" t="s">
         <v>1059</v>
       </c>
+      <c r="E2" t="s">
+        <v>847</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="30">
@@ -4715,6 +4766,9 @@
       <c r="D3" s="30" t="s">
         <v>995</v>
       </c>
+      <c r="E3" t="s">
+        <v>848</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="30">
@@ -4722,10 +4776,13 @@
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>997</v>
+      </c>
+      <c r="E4" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -4739,20 +4796,23 @@
       <c r="D5" s="30" t="s">
         <v>1005</v>
       </c>
+      <c r="E5" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="33" t="s">
         <v>942</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32" t="s">
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33" t="s">
         <v>941</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
       <c r="K9" s="30"/>
       <c r="L9" t="s">
         <v>943</v>
@@ -4798,7 +4858,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="30" t="s">
-        <v>965</v>
+        <v>1094</v>
       </c>
       <c r="B11" s="30">
         <v>1</v>
@@ -4836,7 +4896,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
-        <v>966</v>
+        <v>1095</v>
       </c>
       <c r="B12" s="30">
         <v>1</v>
@@ -4848,7 +4908,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12" s="30">
         <v>1</v>
@@ -4874,10 +4934,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B19" s="30"/>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="33" t="s">
         <v>993</v>
       </c>
-      <c r="D19" s="32"/>
+      <c r="D19" s="33"/>
       <c r="F19" s="30" t="s">
         <v>943</v>
       </c>
@@ -4910,7 +4970,7 @@
         <v>975</v>
       </c>
       <c r="C21" s="30">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>998</v>
@@ -4919,7 +4979,7 @@
         <v>1029</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>1009</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -4939,7 +4999,7 @@
         <v>704</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>1010</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.35">
@@ -4959,7 +5019,7 @@
         <v>1033</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>1011</v>
+        <v>1083</v>
       </c>
       <c r="J23"/>
       <c r="K23"/>
@@ -4982,7 +5042,7 @@
         <v>1058</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>1012</v>
+        <v>1084</v>
       </c>
       <c r="J24"/>
       <c r="K24"/>
@@ -5027,18 +5087,18 @@
       <c r="K29" s="31"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="33" t="s">
         <v>942</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32" t="s">
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33" t="s">
         <v>941</v>
       </c>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
       <c r="J30" s="31"/>
       <c r="K30" s="31"/>
     </row>
@@ -5123,10 +5183,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B40" s="30"/>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="33" t="s">
         <v>993</v>
       </c>
-      <c r="D40" s="32"/>
+      <c r="D40" s="33"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="30" t="s">
@@ -5159,13 +5219,13 @@
         <v>49</v>
       </c>
       <c r="D42" s="30" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F42" s="30" t="s">
         <v>1074</v>
-      </c>
-      <c r="E42" s="30" t="s">
-        <v>1077</v>
-      </c>
-      <c r="F42" s="30" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
@@ -5182,7 +5242,7 @@
         <v>1072</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F43" s="30" t="s">
         <v>1070</v>
@@ -5196,22 +5256,26 @@
         <v>1067</v>
       </c>
       <c r="C44" s="30">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D44" s="30" t="s">
         <v>1069</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F44" s="30" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="30" t="s">
-        <v>1079</v>
-      </c>
+        <v>1078</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F47" s="33"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="30" t="s">
@@ -5226,13 +5290,19 @@
       <c r="D48" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E48" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="30" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B49" t="s">
         <v>1080</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1081</v>
       </c>
       <c r="C49">
         <v>30</v>
@@ -5240,13 +5310,16 @@
       <c r="D49" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F49" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="30" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B50" t="s">
         <v>1080</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1081</v>
       </c>
       <c r="C50">
         <v>41</v>
@@ -5254,13 +5327,16 @@
       <c r="D50" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F50" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="30" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B51" t="s">
         <v>1080</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1081</v>
       </c>
       <c r="C51">
         <v>42</v>
@@ -5268,10 +5344,13 @@
       <c r="D51" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F51" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="30" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B52" t="s">
         <v>660</v>
@@ -5280,12 +5359,15 @@
         <v>50</v>
       </c>
       <c r="D52" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1075</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="30" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B53" t="s">
         <v>1035</v>
@@ -5296,9 +5378,13 @@
       <c r="D53" t="s">
         <v>1068</v>
       </c>
+      <c r="E53" t="s">
+        <v>1093</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="E47:F47"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="C40:D40"/>
@@ -5306,7 +5392,8 @@
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="C19:D19"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="130" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18718,11 +18805,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
       <c r="E3" t="s">
         <v>115</v>
       </c>
@@ -18732,28 +18819,28 @@
       <c r="G3" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32" t="s">
+      <c r="I3" s="33"/>
+      <c r="J3" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32" t="s">
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
       <c r="X3" t="s">
         <v>121</v>
       </c>
@@ -18842,7 +18929,7 @@
       <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="33" t="s">
         <v>107</v>
       </c>
     </row>
@@ -18850,13 +18937,13 @@
       <c r="C6" s="9">
         <v>2</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="33"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C7" s="9">
         <v>3</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="33" t="s">
         <v>794</v>
       </c>
     </row>
@@ -18864,13 +18951,13 @@
       <c r="C8" s="9">
         <v>4</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="33"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C9" s="9">
         <v>5</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="33" t="s">
         <v>795</v>
       </c>
     </row>
@@ -18878,13 +18965,13 @@
       <c r="C10" s="9">
         <v>6</v>
       </c>
-      <c r="D10" s="32"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C11" s="9">
         <v>7</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="33" t="s">
         <v>796</v>
       </c>
     </row>
@@ -18892,13 +18979,13 @@
       <c r="C12" s="9">
         <v>8</v>
       </c>
-      <c r="D12" s="32"/>
+      <c r="D12" s="33"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C13" s="9">
         <v>9</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="35" t="s">
         <v>797</v>
       </c>
     </row>
@@ -18906,7 +18993,7 @@
       <c r="C14" s="9">
         <v>10</v>
       </c>
-      <c r="D14" s="32"/>
+      <c r="D14" s="33"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="N15" t="s">
@@ -19172,7 +19259,7 @@
       <c r="A19" s="9">
         <v>4</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="34" t="s">
         <v>768</v>
       </c>
       <c r="E19" t="s">
@@ -19249,7 +19336,7 @@
       <c r="A20" s="9">
         <v>5</v>
       </c>
-      <c r="D20" s="33"/>
+      <c r="D20" s="34"/>
       <c r="E20" t="s">
         <v>149</v>
       </c>
@@ -19324,7 +19411,7 @@
       <c r="A21" s="9">
         <v>6</v>
       </c>
-      <c r="D21" s="33"/>
+      <c r="D21" s="34"/>
       <c r="E21" t="s">
         <v>149</v>
       </c>
@@ -19399,7 +19486,7 @@
       <c r="A22" s="9">
         <v>7</v>
       </c>
-      <c r="D22" s="33"/>
+      <c r="D22" s="34"/>
       <c r="E22" t="s">
         <v>149</v>
       </c>
@@ -19474,7 +19561,7 @@
       <c r="A23" s="9">
         <v>8</v>
       </c>
-      <c r="D23" s="33"/>
+      <c r="D23" s="34"/>
       <c r="E23" t="s">
         <v>149</v>
       </c>
@@ -19549,7 +19636,7 @@
       <c r="A24" s="9">
         <v>9</v>
       </c>
-      <c r="D24" s="33"/>
+      <c r="D24" s="34"/>
       <c r="E24" t="s">
         <v>149</v>
       </c>
@@ -19624,7 +19711,7 @@
       <c r="A25" s="9">
         <v>10</v>
       </c>
-      <c r="D25" s="33"/>
+      <c r="D25" s="34"/>
       <c r="E25" t="s">
         <v>149</v>
       </c>
@@ -19699,7 +19786,7 @@
       <c r="A26" s="9">
         <v>11</v>
       </c>
-      <c r="D26" s="33"/>
+      <c r="D26" s="34"/>
       <c r="E26" t="s">
         <v>149</v>
       </c>
@@ -19774,7 +19861,7 @@
       <c r="A27" s="9">
         <v>12</v>
       </c>
-      <c r="D27" s="33"/>
+      <c r="D27" s="34"/>
       <c r="E27" t="s">
         <v>149</v>
       </c>
@@ -19849,7 +19936,7 @@
       <c r="A28" s="9">
         <v>13</v>
       </c>
-      <c r="D28" s="33"/>
+      <c r="D28" s="34"/>
       <c r="E28" t="s">
         <v>149</v>
       </c>
@@ -20306,7 +20393,7 @@
       <c r="A34" s="9">
         <v>19</v>
       </c>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="34" t="s">
         <v>770</v>
       </c>
       <c r="E34" t="s">
@@ -20383,7 +20470,7 @@
       <c r="A35" s="9">
         <v>20</v>
       </c>
-      <c r="D35" s="33"/>
+      <c r="D35" s="34"/>
       <c r="E35" t="s">
         <v>230</v>
       </c>
@@ -20458,7 +20545,7 @@
       <c r="A36" s="9">
         <v>21</v>
       </c>
-      <c r="D36" s="33"/>
+      <c r="D36" s="34"/>
       <c r="E36" t="s">
         <v>231</v>
       </c>
@@ -20533,7 +20620,7 @@
       <c r="A37" s="9">
         <v>22</v>
       </c>
-      <c r="D37" s="33"/>
+      <c r="D37" s="34"/>
       <c r="E37" t="s">
         <v>232</v>
       </c>
@@ -20608,7 +20695,7 @@
       <c r="A38" s="9">
         <v>23</v>
       </c>
-      <c r="D38" s="33"/>
+      <c r="D38" s="34"/>
       <c r="E38" t="s">
         <v>233</v>
       </c>
@@ -20683,7 +20770,7 @@
       <c r="A39" s="9">
         <v>24</v>
       </c>
-      <c r="D39" s="33"/>
+      <c r="D39" s="34"/>
       <c r="E39" t="s">
         <v>238</v>
       </c>
@@ -20758,7 +20845,7 @@
       <c r="A40" s="9">
         <v>25</v>
       </c>
-      <c r="D40" s="33"/>
+      <c r="D40" s="34"/>
       <c r="E40" t="s">
         <v>244</v>
       </c>
@@ -20833,7 +20920,7 @@
       <c r="A41" s="9">
         <v>26</v>
       </c>
-      <c r="D41" s="33"/>
+      <c r="D41" s="34"/>
       <c r="E41" t="s">
         <v>245</v>
       </c>
@@ -20908,7 +20995,7 @@
       <c r="A42" s="9">
         <v>27</v>
       </c>
-      <c r="D42" s="33"/>
+      <c r="D42" s="34"/>
       <c r="E42" t="s">
         <v>246</v>
       </c>
@@ -20983,7 +21070,7 @@
       <c r="A43" s="9">
         <v>28</v>
       </c>
-      <c r="D43" s="33"/>
+      <c r="D43" s="34"/>
       <c r="E43" t="s">
         <v>247</v>
       </c>
@@ -21058,7 +21145,7 @@
       <c r="A44" s="9">
         <v>29</v>
       </c>
-      <c r="D44" s="33"/>
+      <c r="D44" s="34"/>
       <c r="E44" t="s">
         <v>248</v>
       </c>
@@ -21133,7 +21220,7 @@
       <c r="A45" s="9">
         <v>30</v>
       </c>
-      <c r="D45" s="33"/>
+      <c r="D45" s="34"/>
       <c r="E45" t="s">
         <v>249</v>
       </c>
@@ -21208,7 +21295,7 @@
       <c r="A46" s="9">
         <v>31</v>
       </c>
-      <c r="D46" s="33" t="s">
+      <c r="D46" s="34" t="s">
         <v>771</v>
       </c>
       <c r="E46" t="s">
@@ -21285,7 +21372,7 @@
       <c r="A47" s="9">
         <v>32</v>
       </c>
-      <c r="D47" s="33"/>
+      <c r="D47" s="34"/>
       <c r="E47" t="s">
         <v>149</v>
       </c>
@@ -21360,7 +21447,7 @@
       <c r="A48" s="9">
         <v>33</v>
       </c>
-      <c r="D48" s="33" t="s">
+      <c r="D48" s="34" t="s">
         <v>774</v>
       </c>
       <c r="E48" t="s">
@@ -21437,7 +21524,7 @@
       <c r="A49" s="9">
         <v>34</v>
       </c>
-      <c r="D49" s="33"/>
+      <c r="D49" s="34"/>
       <c r="E49" t="s">
         <v>251</v>
       </c>
@@ -21512,7 +21599,7 @@
       <c r="A50" s="9">
         <v>35</v>
       </c>
-      <c r="D50" s="33"/>
+      <c r="D50" s="34"/>
       <c r="E50" t="s">
         <v>232</v>
       </c>
@@ -22384,7 +22471,7 @@
       <c r="C61" s="9">
         <v>2</v>
       </c>
-      <c r="D61" s="33" t="s">
+      <c r="D61" s="34" t="s">
         <v>783</v>
       </c>
       <c r="F61" t="s">
@@ -22461,7 +22548,7 @@
       <c r="C62" s="9">
         <v>3</v>
       </c>
-      <c r="D62" s="33"/>
+      <c r="D62" s="34"/>
       <c r="F62" t="s">
         <v>149</v>
       </c>
@@ -23484,7 +23571,7 @@
       <c r="A75" s="9">
         <v>60</v>
       </c>
-      <c r="D75" s="33" t="s">
+      <c r="D75" s="34" t="s">
         <v>774</v>
       </c>
       <c r="E75" t="s">
@@ -23561,7 +23648,7 @@
       <c r="A76" s="9">
         <v>61</v>
       </c>
-      <c r="D76" s="33"/>
+      <c r="D76" s="34"/>
       <c r="E76" t="s">
         <v>409</v>
       </c>
@@ -23636,7 +23723,7 @@
       <c r="A77" s="9">
         <v>62</v>
       </c>
-      <c r="D77" s="33"/>
+      <c r="D77" s="34"/>
       <c r="E77" t="s">
         <v>410</v>
       </c>
@@ -23711,7 +23798,7 @@
       <c r="A78" s="9">
         <v>63</v>
       </c>
-      <c r="D78" s="33"/>
+      <c r="D78" s="34"/>
       <c r="E78" t="s">
         <v>232</v>
       </c>
@@ -23786,7 +23873,7 @@
       <c r="A79" s="9">
         <v>64</v>
       </c>
-      <c r="D79" s="33"/>
+      <c r="D79" s="34"/>
       <c r="E79" t="s">
         <v>411</v>
       </c>
@@ -23861,7 +23948,7 @@
       <c r="A80" s="9">
         <v>65</v>
       </c>
-      <c r="D80" s="33"/>
+      <c r="D80" s="34"/>
       <c r="E80" t="s">
         <v>411</v>
       </c>
@@ -23936,7 +24023,7 @@
       <c r="A81" s="9">
         <v>66</v>
       </c>
-      <c r="D81" s="33"/>
+      <c r="D81" s="34"/>
       <c r="E81" t="s">
         <v>412</v>
       </c>
@@ -24014,7 +24101,7 @@
       <c r="C82" s="9">
         <v>9</v>
       </c>
-      <c r="D82" s="33"/>
+      <c r="D82" s="34"/>
       <c r="E82" t="s">
         <v>413</v>
       </c>
@@ -24089,7 +24176,7 @@
       <c r="C83" s="9">
         <v>1</v>
       </c>
-      <c r="D83" s="33" t="s">
+      <c r="D83" s="34" t="s">
         <v>792</v>
       </c>
       <c r="E83" t="s">
@@ -24169,7 +24256,7 @@
       <c r="C84" s="9">
         <v>3</v>
       </c>
-      <c r="D84" s="33"/>
+      <c r="D84" s="34"/>
       <c r="E84" t="s">
         <v>149</v>
       </c>
@@ -24247,7 +24334,7 @@
       <c r="C85" s="9">
         <v>5</v>
       </c>
-      <c r="D85" s="33"/>
+      <c r="D85" s="34"/>
       <c r="E85" t="s">
         <v>149</v>
       </c>
@@ -24325,7 +24412,7 @@
       <c r="C86" s="9">
         <v>7</v>
       </c>
-      <c r="D86" s="33"/>
+      <c r="D86" s="34"/>
       <c r="E86" t="s">
         <v>149</v>
       </c>
@@ -24403,7 +24490,7 @@
       <c r="C87" s="9">
         <v>9</v>
       </c>
-      <c r="D87" s="33"/>
+      <c r="D87" s="34"/>
       <c r="E87" t="s">
         <v>149</v>
       </c>
@@ -25251,7 +25338,7 @@
       <c r="A98" s="9">
         <v>83</v>
       </c>
-      <c r="D98" s="33" t="s">
+      <c r="D98" s="34" t="s">
         <v>806</v>
       </c>
       <c r="E98" t="s">
@@ -25328,7 +25415,7 @@
       <c r="A99" s="9">
         <v>84</v>
       </c>
-      <c r="D99" s="33"/>
+      <c r="D99" s="34"/>
       <c r="E99" t="s">
         <v>409</v>
       </c>
@@ -25643,7 +25730,7 @@
       <c r="C103" s="9">
         <v>7</v>
       </c>
-      <c r="D103" s="33" t="s">
+      <c r="D103" s="34" t="s">
         <v>805</v>
       </c>
       <c r="E103" t="s">
@@ -25723,7 +25810,7 @@
       <c r="C104" s="9">
         <v>5</v>
       </c>
-      <c r="D104" s="33"/>
+      <c r="D104" s="34"/>
       <c r="E104" t="s">
         <v>479</v>
       </c>
@@ -25801,7 +25888,7 @@
       <c r="C105" s="9">
         <v>3</v>
       </c>
-      <c r="D105" s="33"/>
+      <c r="D105" s="34"/>
       <c r="E105" t="s">
         <v>483</v>
       </c>
@@ -25879,7 +25966,7 @@
       <c r="C106" s="9">
         <v>1</v>
       </c>
-      <c r="D106" s="33"/>
+      <c r="D106" s="34"/>
       <c r="E106" t="s">
         <v>82</v>
       </c>
@@ -26327,7 +26414,7 @@
       <c r="A112" s="9">
         <v>97</v>
       </c>
-      <c r="D112" s="33" t="s">
+      <c r="D112" s="34" t="s">
         <v>807</v>
       </c>
       <c r="E112" t="s">
@@ -26401,7 +26488,7 @@
       <c r="A113" s="9">
         <v>98</v>
       </c>
-      <c r="D113" s="33"/>
+      <c r="D113" s="34"/>
       <c r="E113" t="s">
         <v>232</v>
       </c>
@@ -27317,7 +27404,7 @@
       <c r="A125" s="9">
         <v>110</v>
       </c>
-      <c r="D125" s="33" t="s">
+      <c r="D125" s="34" t="s">
         <v>807</v>
       </c>
       <c r="E125" t="s">
@@ -27394,7 +27481,7 @@
       <c r="A126" s="9">
         <v>111</v>
       </c>
-      <c r="D126" s="33"/>
+      <c r="D126" s="34"/>
       <c r="E126" t="s">
         <v>232</v>
       </c>
@@ -27469,7 +27556,7 @@
       <c r="A127" s="9">
         <v>112</v>
       </c>
-      <c r="D127" s="33"/>
+      <c r="D127" s="34"/>
       <c r="E127" t="s">
         <v>549</v>
       </c>
@@ -28290,7 +28377,7 @@
       <c r="A138" s="9">
         <v>123</v>
       </c>
-      <c r="D138" s="33" t="s">
+      <c r="D138" s="34" t="s">
         <v>807</v>
       </c>
       <c r="E138" t="s">
@@ -28367,7 +28454,7 @@
       <c r="A139" s="9">
         <v>124</v>
       </c>
-      <c r="D139" s="33"/>
+      <c r="D139" s="34"/>
       <c r="E139" t="s">
         <v>232</v>
       </c>
@@ -30216,7 +30303,7 @@
       <c r="A163" s="9">
         <v>148</v>
       </c>
-      <c r="D163" s="33" t="s">
+      <c r="D163" s="34" t="s">
         <v>807</v>
       </c>
       <c r="E163" t="s">
@@ -30293,7 +30380,7 @@
       <c r="A164" s="9">
         <v>149</v>
       </c>
-      <c r="D164" s="33"/>
+      <c r="D164" s="34"/>
       <c r="E164" t="s">
         <v>244</v>
       </c>
@@ -30368,7 +30455,7 @@
       <c r="A165" s="9">
         <v>150</v>
       </c>
-      <c r="D165" s="33"/>
+      <c r="D165" s="34"/>
       <c r="E165" t="s">
         <v>232</v>
       </c>
@@ -30597,7 +30684,7 @@
       <c r="A168" s="9">
         <v>153</v>
       </c>
-      <c r="D168" s="33" t="s">
+      <c r="D168" s="34" t="s">
         <v>807</v>
       </c>
       <c r="E168" t="s">
@@ -30674,7 +30761,7 @@
       <c r="A169" s="9">
         <v>154</v>
       </c>
-      <c r="D169" s="33"/>
+      <c r="D169" s="34"/>
       <c r="E169" t="s">
         <v>712</v>
       </c>
@@ -30749,7 +30836,7 @@
       <c r="A170" s="9">
         <v>155</v>
       </c>
-      <c r="D170" s="33"/>
+      <c r="D170" s="34"/>
       <c r="E170" t="s">
         <v>713</v>
       </c>
@@ -30824,7 +30911,7 @@
       <c r="A171" s="9">
         <v>156</v>
       </c>
-      <c r="D171" s="33"/>
+      <c r="D171" s="34"/>
       <c r="E171" t="s">
         <v>714</v>
       </c>
@@ -30899,7 +30986,7 @@
       <c r="A172" s="9">
         <v>157</v>
       </c>
-      <c r="D172" s="33"/>
+      <c r="D172" s="34"/>
       <c r="E172" t="s">
         <v>715</v>
       </c>
@@ -30974,7 +31061,7 @@
       <c r="A173" s="9">
         <v>158</v>
       </c>
-      <c r="D173" s="33"/>
+      <c r="D173" s="34"/>
       <c r="E173" t="s">
         <v>716</v>
       </c>
@@ -31896,7 +31983,7 @@
       <c r="A185" s="9">
         <v>170</v>
       </c>
-      <c r="D185" s="33" t="s">
+      <c r="D185" s="34" t="s">
         <v>807</v>
       </c>
       <c r="E185" t="s">
@@ -31973,7 +32060,7 @@
       <c r="A186" s="9">
         <v>171</v>
       </c>
-      <c r="D186" s="33"/>
+      <c r="D186" s="34"/>
       <c r="E186" t="s">
         <v>244</v>
       </c>
@@ -32479,14 +32566,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
@@ -32747,18 +32834,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
@@ -32905,18 +32992,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">

--- a/S7G2_Titan/2023_Sep_25_MD_Controller_IO_Map_32_bit_S7G2_Titan_6L.xlsx
+++ b/S7G2_Titan/2023_Sep_25_MD_Controller_IO_Map_32_bit_S7G2_Titan_6L.xlsx
@@ -8,26 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\32-bit-controller\S7G2_Titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114879E7-C426-4AB8-BD67-699BA3AEE34F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B826EF-91BE-421E-B531-4EC6FB1247E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16643" yWindow="4403" windowWidth="11783" windowHeight="11513" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16643" yWindow="5603" windowWidth="11783" windowHeight="11513" tabRatio="516" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S7G2_6L_IO" sheetId="16" r:id="rId1"/>
     <sheet name="S5D3_6L_IO" sheetId="17" r:id="rId2"/>
-    <sheet name="Controller Headers" sheetId="13" r:id="rId3"/>
-    <sheet name="IO_Map_176" sheetId="14" r:id="rId4"/>
-    <sheet name="GPT Map" sheetId="9" r:id="rId5"/>
-    <sheet name="Z-axis Speed Cals" sheetId="2" r:id="rId6"/>
-    <sheet name="X_Y axis speed calcs" sheetId="11" r:id="rId7"/>
-    <sheet name="Rack and Pinion" sheetId="15" r:id="rId8"/>
+    <sheet name="6L_Stackup" sheetId="19" r:id="rId3"/>
+    <sheet name="Resistor_Power" sheetId="18" r:id="rId4"/>
+    <sheet name="Controller Headers" sheetId="13" r:id="rId5"/>
+    <sheet name="IO_Map_176" sheetId="14" r:id="rId6"/>
+    <sheet name="GPT Map" sheetId="9" r:id="rId7"/>
+    <sheet name="Z-axis Speed Cals" sheetId="2" r:id="rId8"/>
+    <sheet name="X_Y axis speed calcs" sheetId="11" r:id="rId9"/>
+    <sheet name="Rack and Pinion" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7712" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7766" uniqueCount="1067">
   <si>
     <t>A</t>
   </si>
@@ -3141,6 +3143,105 @@
   </si>
   <si>
     <t>Side</t>
+  </si>
+  <si>
+    <t>Vdd</t>
+  </si>
+  <si>
+    <t>Vdd5</t>
+  </si>
+  <si>
+    <t>Vdd12</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>ohms</t>
+  </si>
+  <si>
+    <t>R specified</t>
+  </si>
+  <si>
+    <t>ivdd</t>
+  </si>
+  <si>
+    <t>ivdd12</t>
+  </si>
+  <si>
+    <t>ivdd5</t>
+  </si>
+  <si>
+    <t>W (=VI)</t>
+  </si>
+  <si>
+    <t>1/16 W</t>
+  </si>
+  <si>
+    <t>1/4 W</t>
+  </si>
+  <si>
+    <t>1/10 W</t>
+  </si>
+  <si>
+    <t>1/8 W</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Copper Layer</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Prepreg</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>Route3</t>
+  </si>
+  <si>
+    <t>Route15</t>
+  </si>
+  <si>
+    <t>GND14</t>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>Dielectric-2</t>
+  </si>
+  <si>
+    <t>Dielectric-4</t>
+  </si>
+  <si>
+    <t>Dielectric-1</t>
+  </si>
+  <si>
+    <t>Dielectric-5</t>
+  </si>
+  <si>
+    <t>Dielectric-3</t>
+  </si>
+  <si>
+    <t>Signal</t>
+  </si>
+  <si>
+    <t>Core</t>
+  </si>
+  <si>
+    <t>Thickness</t>
   </si>
 </sst>
 </file>
@@ -3247,7 +3348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -3335,6 +3436,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3348,9 +3453,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3813,7 +3915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9478DC9D-482E-4825-8833-7BA9E60F25F7}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -3823,23 +3925,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="34" t="s">
         <v>925</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="G1" s="38" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="G1" s="34" t="s">
         <v>925</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="N1" s="38" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="N1" s="34" t="s">
         <v>925</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
@@ -4974,11 +5076,128 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CD0BF2-DE55-4F66-BEBD-0EBA0E40EC64}">
+  <dimension ref="A10:B22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>861</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>862</v>
+      </c>
+      <c r="B11">
+        <f>B10*25.4</f>
+        <v>406.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>863</v>
+      </c>
+      <c r="B12" s="27">
+        <f>3.14159*B11</f>
+        <v>1276.742176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>864</v>
+      </c>
+      <c r="B13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>865</v>
+      </c>
+      <c r="B14" s="27">
+        <f>(B13/360)*B12</f>
+        <v>319.18554399999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>867</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>868</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>869</v>
+      </c>
+      <c r="B19">
+        <f>B17*(B18/12)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>870</v>
+      </c>
+      <c r="B20">
+        <f>B11/2</f>
+        <v>203.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>871</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>872</v>
+      </c>
+      <c r="B22">
+        <f>B19/(B21/12)</f>
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F43284-28EE-4DDD-B95C-3937261F2297}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
@@ -5067,18 +5286,18 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="35" t="s">
         <v>915</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33" t="s">
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35" t="s">
         <v>914</v>
       </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
       <c r="K9" s="30"/>
       <c r="L9" t="s">
         <v>916</v>
@@ -5200,10 +5419,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B19" s="30"/>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="35" t="s">
         <v>925</v>
       </c>
-      <c r="D19" s="33"/>
+      <c r="D19" s="35"/>
       <c r="F19" s="30" t="s">
         <v>916</v>
       </c>
@@ -5353,18 +5572,18 @@
       <c r="K29" s="31"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="35" t="s">
         <v>915</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33" t="s">
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35" t="s">
         <v>914</v>
       </c>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
       <c r="J30" s="31"/>
       <c r="K30" s="31"/>
     </row>
@@ -5449,10 +5668,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B40" s="30"/>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="35" t="s">
         <v>925</v>
       </c>
-      <c r="D40" s="33"/>
+      <c r="D40" s="35"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="30" t="s">
@@ -5538,10 +5757,10 @@
       <c r="A47" s="30" t="s">
         <v>983</v>
       </c>
-      <c r="E47" s="33" t="s">
+      <c r="E47" s="35" t="s">
         <v>991</v>
       </c>
-      <c r="F47" s="33"/>
+      <c r="F47" s="35"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="30" t="s">
@@ -5664,6 +5883,372 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F82AFA-D082-4D48-B750-C20F3716151C}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="21.46484375" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D1" t="s">
+        <v>967</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E4">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C5">
+        <v>7628</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E5">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E8">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C9">
+        <v>7628</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E9">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C10">
+        <v>7628</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E10">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E11">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E13">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C14">
+        <v>7628</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E14">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E15">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <f>SUM(E4:E15)</f>
+        <v>1.5020000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020FFCAF-3F80-48D1-90C6-86C8277DCEA8}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B5">
+        <v>2200</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D6">
+        <v>0.1</v>
+      </c>
+      <c r="E6">
+        <f>1/16</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F6">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="G6" s="33">
+        <f>1/4</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B7">
+        <f>B1/B5</f>
+        <v>1.4999999999999998E-3</v>
+      </c>
+      <c r="C7">
+        <f>B7*B1</f>
+        <v>4.9499999999999995E-3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B8">
+        <f>B2/B5</f>
+        <v>2.2727272727272726E-3</v>
+      </c>
+      <c r="C8">
+        <f>B8*B2</f>
+        <v>1.1363636363636364E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B9">
+        <f>B3/B5</f>
+        <v>5.454545454545455E-3</v>
+      </c>
+      <c r="C9">
+        <f>B9*B3</f>
+        <v>6.545454545454546E-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD9ED81-804C-4EFA-84D0-1A12C997A3D1}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -19051,7 +19636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C29D909-1233-40FF-AAE2-56D494CF763E}">
   <dimension ref="A3:AA192"/>
   <sheetViews>
@@ -19071,11 +19656,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
       <c r="E3" t="s">
         <v>108</v>
       </c>
@@ -19085,28 +19670,28 @@
       <c r="G3" t="s">
         <v>110</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33" t="s">
+      <c r="I3" s="35"/>
+      <c r="J3" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33" t="s">
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
       <c r="X3" t="s">
         <v>114</v>
       </c>
@@ -19195,7 +19780,7 @@
       <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="35" t="s">
         <v>100</v>
       </c>
     </row>
@@ -19203,13 +19788,13 @@
       <c r="C6" s="9">
         <v>2</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="35"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C7" s="9">
         <v>3</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="35" t="s">
         <v>772</v>
       </c>
     </row>
@@ -19217,13 +19802,13 @@
       <c r="C8" s="9">
         <v>4</v>
       </c>
-      <c r="D8" s="33"/>
+      <c r="D8" s="35"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C9" s="9">
         <v>5</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="35" t="s">
         <v>773</v>
       </c>
     </row>
@@ -19231,13 +19816,13 @@
       <c r="C10" s="9">
         <v>6</v>
       </c>
-      <c r="D10" s="33"/>
+      <c r="D10" s="35"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C11" s="9">
         <v>7</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="35" t="s">
         <v>774</v>
       </c>
     </row>
@@ -19245,13 +19830,13 @@
       <c r="C12" s="9">
         <v>8</v>
       </c>
-      <c r="D12" s="33"/>
+      <c r="D12" s="35"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C13" s="9">
         <v>9</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="37" t="s">
         <v>775</v>
       </c>
     </row>
@@ -19259,7 +19844,7 @@
       <c r="C14" s="9">
         <v>10</v>
       </c>
-      <c r="D14" s="33"/>
+      <c r="D14" s="35"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="N15" t="s">
@@ -19525,7 +20110,7 @@
       <c r="A19" s="9">
         <v>4</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="36" t="s">
         <v>761</v>
       </c>
       <c r="E19" t="s">
@@ -19602,7 +20187,7 @@
       <c r="A20" s="9">
         <v>5</v>
       </c>
-      <c r="D20" s="34"/>
+      <c r="D20" s="36"/>
       <c r="E20" t="s">
         <v>142</v>
       </c>
@@ -19677,7 +20262,7 @@
       <c r="A21" s="9">
         <v>6</v>
       </c>
-      <c r="D21" s="34"/>
+      <c r="D21" s="36"/>
       <c r="E21" t="s">
         <v>142</v>
       </c>
@@ -19752,7 +20337,7 @@
       <c r="A22" s="9">
         <v>7</v>
       </c>
-      <c r="D22" s="34"/>
+      <c r="D22" s="36"/>
       <c r="E22" t="s">
         <v>142</v>
       </c>
@@ -19827,7 +20412,7 @@
       <c r="A23" s="9">
         <v>8</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="36"/>
       <c r="E23" t="s">
         <v>142</v>
       </c>
@@ -19902,7 +20487,7 @@
       <c r="A24" s="9">
         <v>9</v>
       </c>
-      <c r="D24" s="34"/>
+      <c r="D24" s="36"/>
       <c r="E24" t="s">
         <v>142</v>
       </c>
@@ -19977,7 +20562,7 @@
       <c r="A25" s="9">
         <v>10</v>
       </c>
-      <c r="D25" s="34"/>
+      <c r="D25" s="36"/>
       <c r="E25" t="s">
         <v>142</v>
       </c>
@@ -20052,7 +20637,7 @@
       <c r="A26" s="9">
         <v>11</v>
       </c>
-      <c r="D26" s="34"/>
+      <c r="D26" s="36"/>
       <c r="E26" t="s">
         <v>142</v>
       </c>
@@ -20127,7 +20712,7 @@
       <c r="A27" s="9">
         <v>12</v>
       </c>
-      <c r="D27" s="34"/>
+      <c r="D27" s="36"/>
       <c r="E27" t="s">
         <v>142</v>
       </c>
@@ -20202,7 +20787,7 @@
       <c r="A28" s="9">
         <v>13</v>
       </c>
-      <c r="D28" s="34"/>
+      <c r="D28" s="36"/>
       <c r="E28" t="s">
         <v>142</v>
       </c>
@@ -20659,7 +21244,7 @@
       <c r="A34" s="9">
         <v>19</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="36" t="s">
         <v>763</v>
       </c>
       <c r="E34" t="s">
@@ -20736,7 +21321,7 @@
       <c r="A35" s="9">
         <v>20</v>
       </c>
-      <c r="D35" s="34"/>
+      <c r="D35" s="36"/>
       <c r="E35" t="s">
         <v>223</v>
       </c>
@@ -20811,7 +21396,7 @@
       <c r="A36" s="9">
         <v>21</v>
       </c>
-      <c r="D36" s="34"/>
+      <c r="D36" s="36"/>
       <c r="E36" t="s">
         <v>224</v>
       </c>
@@ -20886,7 +21471,7 @@
       <c r="A37" s="9">
         <v>22</v>
       </c>
-      <c r="D37" s="34"/>
+      <c r="D37" s="36"/>
       <c r="E37" t="s">
         <v>225</v>
       </c>
@@ -20961,7 +21546,7 @@
       <c r="A38" s="9">
         <v>23</v>
       </c>
-      <c r="D38" s="34"/>
+      <c r="D38" s="36"/>
       <c r="E38" t="s">
         <v>226</v>
       </c>
@@ -21036,7 +21621,7 @@
       <c r="A39" s="9">
         <v>24</v>
       </c>
-      <c r="D39" s="34"/>
+      <c r="D39" s="36"/>
       <c r="E39" t="s">
         <v>231</v>
       </c>
@@ -21111,7 +21696,7 @@
       <c r="A40" s="9">
         <v>25</v>
       </c>
-      <c r="D40" s="34"/>
+      <c r="D40" s="36"/>
       <c r="E40" t="s">
         <v>237</v>
       </c>
@@ -21186,7 +21771,7 @@
       <c r="A41" s="9">
         <v>26</v>
       </c>
-      <c r="D41" s="34"/>
+      <c r="D41" s="36"/>
       <c r="E41" t="s">
         <v>238</v>
       </c>
@@ -21261,7 +21846,7 @@
       <c r="A42" s="9">
         <v>27</v>
       </c>
-      <c r="D42" s="34"/>
+      <c r="D42" s="36"/>
       <c r="E42" t="s">
         <v>239</v>
       </c>
@@ -21336,7 +21921,7 @@
       <c r="A43" s="9">
         <v>28</v>
       </c>
-      <c r="D43" s="34"/>
+      <c r="D43" s="36"/>
       <c r="E43" t="s">
         <v>240</v>
       </c>
@@ -21411,7 +21996,7 @@
       <c r="A44" s="9">
         <v>29</v>
       </c>
-      <c r="D44" s="34"/>
+      <c r="D44" s="36"/>
       <c r="E44" t="s">
         <v>241</v>
       </c>
@@ -21486,7 +22071,7 @@
       <c r="A45" s="9">
         <v>30</v>
       </c>
-      <c r="D45" s="34"/>
+      <c r="D45" s="36"/>
       <c r="E45" t="s">
         <v>242</v>
       </c>
@@ -21561,7 +22146,7 @@
       <c r="A46" s="9">
         <v>31</v>
       </c>
-      <c r="D46" s="34" t="s">
+      <c r="D46" s="36" t="s">
         <v>764</v>
       </c>
       <c r="E46" t="s">
@@ -21638,7 +22223,7 @@
       <c r="A47" s="9">
         <v>32</v>
       </c>
-      <c r="D47" s="34"/>
+      <c r="D47" s="36"/>
       <c r="E47" t="s">
         <v>142</v>
       </c>
@@ -21713,7 +22298,7 @@
       <c r="A48" s="9">
         <v>33</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D48" s="36" t="s">
         <v>767</v>
       </c>
       <c r="E48" t="s">
@@ -21790,7 +22375,7 @@
       <c r="A49" s="9">
         <v>34</v>
       </c>
-      <c r="D49" s="34"/>
+      <c r="D49" s="36"/>
       <c r="E49" t="s">
         <v>244</v>
       </c>
@@ -21865,7 +22450,7 @@
       <c r="A50" s="9">
         <v>35</v>
       </c>
-      <c r="D50" s="34"/>
+      <c r="D50" s="36"/>
       <c r="E50" t="s">
         <v>225</v>
       </c>
@@ -22683,7 +23268,7 @@
       <c r="A61" s="9">
         <v>46</v>
       </c>
-      <c r="D61" s="34" t="s">
+      <c r="D61" s="36" t="s">
         <v>768</v>
       </c>
       <c r="F61" t="s">
@@ -22757,7 +23342,7 @@
       <c r="A62" s="9">
         <v>47</v>
       </c>
-      <c r="D62" s="34"/>
+      <c r="D62" s="36"/>
       <c r="F62" t="s">
         <v>142</v>
       </c>
@@ -23717,7 +24302,7 @@
       <c r="A75" s="9">
         <v>60</v>
       </c>
-      <c r="D75" s="34" t="s">
+      <c r="D75" s="36" t="s">
         <v>767</v>
       </c>
       <c r="E75" t="s">
@@ -23794,7 +24379,7 @@
       <c r="A76" s="9">
         <v>61</v>
       </c>
-      <c r="D76" s="34"/>
+      <c r="D76" s="36"/>
       <c r="E76" t="s">
         <v>402</v>
       </c>
@@ -23869,7 +24454,7 @@
       <c r="A77" s="9">
         <v>62</v>
       </c>
-      <c r="D77" s="34"/>
+      <c r="D77" s="36"/>
       <c r="E77" t="s">
         <v>403</v>
       </c>
@@ -23944,7 +24529,7 @@
       <c r="A78" s="9">
         <v>63</v>
       </c>
-      <c r="D78" s="34"/>
+      <c r="D78" s="36"/>
       <c r="E78" t="s">
         <v>225</v>
       </c>
@@ -24019,7 +24604,7 @@
       <c r="A79" s="9">
         <v>64</v>
       </c>
-      <c r="D79" s="34"/>
+      <c r="D79" s="36"/>
       <c r="E79" t="s">
         <v>404</v>
       </c>
@@ -24094,7 +24679,7 @@
       <c r="A80" s="9">
         <v>65</v>
       </c>
-      <c r="D80" s="34"/>
+      <c r="D80" s="36"/>
       <c r="E80" t="s">
         <v>404</v>
       </c>
@@ -24169,7 +24754,7 @@
       <c r="A81" s="9">
         <v>66</v>
       </c>
-      <c r="D81" s="34"/>
+      <c r="D81" s="36"/>
       <c r="E81" t="s">
         <v>405</v>
       </c>
@@ -24244,7 +24829,7 @@
       <c r="A82" s="9">
         <v>67</v>
       </c>
-      <c r="D82" s="34"/>
+      <c r="D82" s="36"/>
       <c r="E82" t="s">
         <v>406</v>
       </c>
@@ -24316,7 +24901,7 @@
       <c r="A83" s="9">
         <v>68</v>
       </c>
-      <c r="D83" s="34" t="s">
+      <c r="D83" s="36" t="s">
         <v>770</v>
       </c>
       <c r="E83" t="s">
@@ -24393,7 +24978,7 @@
       <c r="A84" s="9">
         <v>69</v>
       </c>
-      <c r="D84" s="34"/>
+      <c r="D84" s="36"/>
       <c r="E84" t="s">
         <v>142</v>
       </c>
@@ -24468,7 +25053,7 @@
       <c r="A85" s="9">
         <v>70</v>
       </c>
-      <c r="D85" s="34"/>
+      <c r="D85" s="36"/>
       <c r="E85" t="s">
         <v>142</v>
       </c>
@@ -24543,7 +25128,7 @@
       <c r="A86" s="9">
         <v>71</v>
       </c>
-      <c r="D86" s="34"/>
+      <c r="D86" s="36"/>
       <c r="E86" t="s">
         <v>142</v>
       </c>
@@ -24618,7 +25203,7 @@
       <c r="A87" s="9">
         <v>72</v>
       </c>
-      <c r="D87" s="34"/>
+      <c r="D87" s="36"/>
       <c r="E87" t="s">
         <v>142</v>
       </c>
@@ -25439,7 +26024,7 @@
       <c r="A98" s="9">
         <v>83</v>
       </c>
-      <c r="D98" s="34" t="s">
+      <c r="D98" s="36" t="s">
         <v>784</v>
       </c>
       <c r="E98" t="s">
@@ -25516,7 +26101,7 @@
       <c r="A99" s="9">
         <v>84</v>
       </c>
-      <c r="D99" s="34"/>
+      <c r="D99" s="36"/>
       <c r="E99" t="s">
         <v>402</v>
       </c>
@@ -25816,7 +26401,7 @@
       <c r="C103" s="9">
         <v>7</v>
       </c>
-      <c r="D103" s="34" t="s">
+      <c r="D103" s="36" t="s">
         <v>783</v>
       </c>
       <c r="E103" t="s">
@@ -25896,7 +26481,7 @@
       <c r="C104" s="9">
         <v>5</v>
       </c>
-      <c r="D104" s="34"/>
+      <c r="D104" s="36"/>
       <c r="E104" t="s">
         <v>472</v>
       </c>
@@ -25974,7 +26559,7 @@
       <c r="C105" s="9">
         <v>3</v>
       </c>
-      <c r="D105" s="34"/>
+      <c r="D105" s="36"/>
       <c r="E105" t="s">
         <v>476</v>
       </c>
@@ -26052,7 +26637,7 @@
       <c r="C106" s="9">
         <v>1</v>
       </c>
-      <c r="D106" s="34"/>
+      <c r="D106" s="36"/>
       <c r="E106" t="s">
         <v>75</v>
       </c>
@@ -26485,7 +27070,7 @@
       <c r="A112" s="9">
         <v>97</v>
       </c>
-      <c r="D112" s="34" t="s">
+      <c r="D112" s="36" t="s">
         <v>785</v>
       </c>
       <c r="E112" t="s">
@@ -26559,7 +27144,7 @@
       <c r="A113" s="9">
         <v>98</v>
       </c>
-      <c r="D113" s="34"/>
+      <c r="D113" s="36"/>
       <c r="E113" t="s">
         <v>225</v>
       </c>
@@ -27442,7 +28027,7 @@
       <c r="A125" s="9">
         <v>110</v>
       </c>
-      <c r="D125" s="34" t="s">
+      <c r="D125" s="36" t="s">
         <v>785</v>
       </c>
       <c r="E125" t="s">
@@ -27519,7 +28104,7 @@
       <c r="A126" s="9">
         <v>111</v>
       </c>
-      <c r="D126" s="34"/>
+      <c r="D126" s="36"/>
       <c r="E126" t="s">
         <v>225</v>
       </c>
@@ -27594,7 +28179,7 @@
       <c r="A127" s="9">
         <v>112</v>
       </c>
-      <c r="D127" s="34"/>
+      <c r="D127" s="36"/>
       <c r="E127" t="s">
         <v>542</v>
       </c>
@@ -28385,7 +28970,7 @@
       <c r="A138" s="9">
         <v>123</v>
       </c>
-      <c r="D138" s="34" t="s">
+      <c r="D138" s="36" t="s">
         <v>785</v>
       </c>
       <c r="E138" t="s">
@@ -28462,7 +29047,7 @@
       <c r="A139" s="9">
         <v>124</v>
       </c>
-      <c r="D139" s="34"/>
+      <c r="D139" s="36"/>
       <c r="E139" t="s">
         <v>225</v>
       </c>
@@ -30248,7 +30833,7 @@
       <c r="A163" s="9">
         <v>148</v>
       </c>
-      <c r="D163" s="34" t="s">
+      <c r="D163" s="36" t="s">
         <v>785</v>
       </c>
       <c r="E163" t="s">
@@ -30325,7 +30910,7 @@
       <c r="A164" s="9">
         <v>149</v>
       </c>
-      <c r="D164" s="34"/>
+      <c r="D164" s="36"/>
       <c r="E164" t="s">
         <v>237</v>
       </c>
@@ -30400,7 +30985,7 @@
       <c r="A165" s="9">
         <v>150</v>
       </c>
-      <c r="D165" s="34"/>
+      <c r="D165" s="36"/>
       <c r="E165" t="s">
         <v>225</v>
       </c>
@@ -30623,7 +31208,7 @@
       <c r="A168" s="9">
         <v>153</v>
       </c>
-      <c r="D168" s="34" t="s">
+      <c r="D168" s="36" t="s">
         <v>785</v>
       </c>
       <c r="E168" t="s">
@@ -30700,7 +31285,7 @@
       <c r="A169" s="9">
         <v>154</v>
       </c>
-      <c r="D169" s="34"/>
+      <c r="D169" s="36"/>
       <c r="E169" t="s">
         <v>705</v>
       </c>
@@ -30775,7 +31360,7 @@
       <c r="A170" s="9">
         <v>155</v>
       </c>
-      <c r="D170" s="34"/>
+      <c r="D170" s="36"/>
       <c r="E170" t="s">
         <v>706</v>
       </c>
@@ -30850,7 +31435,7 @@
       <c r="A171" s="9">
         <v>156</v>
       </c>
-      <c r="D171" s="34"/>
+      <c r="D171" s="36"/>
       <c r="E171" t="s">
         <v>707</v>
       </c>
@@ -30925,7 +31510,7 @@
       <c r="A172" s="9">
         <v>157</v>
       </c>
-      <c r="D172" s="34"/>
+      <c r="D172" s="36"/>
       <c r="E172" t="s">
         <v>708</v>
       </c>
@@ -31000,7 +31585,7 @@
       <c r="A173" s="9">
         <v>158</v>
       </c>
-      <c r="D173" s="34"/>
+      <c r="D173" s="36"/>
       <c r="E173" t="s">
         <v>709</v>
       </c>
@@ -31892,7 +32477,7 @@
       <c r="A185" s="9">
         <v>170</v>
       </c>
-      <c r="D185" s="34" t="s">
+      <c r="D185" s="36" t="s">
         <v>785</v>
       </c>
       <c r="E185" t="s">
@@ -31969,7 +32554,7 @@
       <c r="A186" s="9">
         <v>171</v>
       </c>
-      <c r="D186" s="34"/>
+      <c r="D186" s="36"/>
       <c r="E186" t="s">
         <v>237</v>
       </c>
@@ -32449,7 +33034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:E17"/>
   <sheetViews>
@@ -32463,14 +33048,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
@@ -32707,7 +33292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
@@ -32731,18 +33316,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
@@ -32874,7 +33459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -32889,18 +33474,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
@@ -33017,121 +33602,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1000" verticalDpi="1000" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CD0BF2-DE55-4F66-BEBD-0EBA0E40EC64}">
-  <dimension ref="A10:B22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="19.19921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>861</v>
-      </c>
-      <c r="B10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>862</v>
-      </c>
-      <c r="B11">
-        <f>B10*25.4</f>
-        <v>406.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>863</v>
-      </c>
-      <c r="B12" s="27">
-        <f>3.14159*B11</f>
-        <v>1276.742176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>864</v>
-      </c>
-      <c r="B13">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>865</v>
-      </c>
-      <c r="B14" s="27">
-        <f>(B13/360)*B12</f>
-        <v>319.18554399999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>867</v>
-      </c>
-      <c r="B17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>868</v>
-      </c>
-      <c r="B18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>869</v>
-      </c>
-      <c r="B19">
-        <f>B17*(B18/12)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>870</v>
-      </c>
-      <c r="B20">
-        <f>B11/2</f>
-        <v>203.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>871</v>
-      </c>
-      <c r="B21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>872</v>
-      </c>
-      <c r="B22">
-        <f>B19/(B21/12)</f>
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>